--- a/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample07-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample07-from-config-file.xlsx
@@ -6,6 +6,7 @@
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="1" r:id="rId1"/>
+    <sheet name="ssss" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Invoice'!$A$6:$K$6</definedName>
@@ -16180,4 +16181,15 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample07-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample07-from-config-file.xlsx
@@ -1416,7 +1416,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1480,12 +1480,6 @@
     </xf>
     <xf numFmtId="164" applyNumberFormat="1" fontId="4" applyFont="1" fillId="5" applyFill="1" borderId="2" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="5" applyFont="1" fillId="4" applyFill="1" xfId="18" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="5" applyFont="1" fillId="4" applyFill="1" xfId="19" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -1572,23 +1566,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.39577102661133" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="10.8190710885184" customWidth="1"/>
-    <col min="3" max="3" width="21.1530857086182" customWidth="1"/>
+    <col min="3" max="3" width="20.0285186767578" customWidth="1"/>
     <col min="4" max="4" width="17.7731246948242" customWidth="1"/>
     <col min="5" max="5" width="26.5398646763393" customWidth="1"/>
     <col min="6" max="6" width="36.7100655691964" customWidth="1"/>
     <col min="7" max="7" width="18.1758411952427" customWidth="1"/>
-    <col min="8" max="8" width="8.32992172241211" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
     <col min="9" max="9" width="14.2519204275949" customWidth="1"/>
     <col min="10" max="10" width="14.2115238734654" customWidth="1"/>
-    <col min="11" max="11" width="8.23375374930245" customWidth="1"/>
-    <col min="12" max="12" width="0" customWidth="1"/>
-    <col min="13" max="13" width="0" customWidth="1"/>
-    <col min="14" max="14" width="0" customWidth="1"/>
-    <col min="15" max="15" width="0" customWidth="1"/>
-    <col min="16" max="16" width="0" customWidth="1"/>
-    <col min="17" max="17" width="0" customWidth="1"/>
+    <col min="11" max="11" width="9.59976305280413" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="100.5" customHeight="1"/>
@@ -1757,7 +1751,7 @@
       <c r="B7" s="12">
         <v>40248</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="18" t="s">
@@ -1792,7 +1786,7 @@
       <c r="B8" s="13">
         <v>40342</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="19" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -1827,7 +1821,7 @@
       <c r="B9" s="12">
         <v>40436</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="18" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="18" t="s">
@@ -1862,7 +1856,7 @@
       <c r="B10" s="13">
         <v>40669</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="19" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="19" t="s">
@@ -1886,7 +1880,7 @@
       <c r="J10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="15">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -1897,7 +1891,7 @@
       <c r="B11" s="12">
         <v>41209</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="18" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="18" t="s">
@@ -1932,7 +1926,7 @@
       <c r="B12" s="13">
         <v>41250</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="19" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="19" t="s">
@@ -1967,7 +1961,7 @@
       <c r="B13" s="12">
         <v>41493</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="18" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="18" t="s">
@@ -1992,7 +1986,7 @@
         <v>23</v>
       </c>
       <c r="K13" s="14">
-        <v>8.90999984741211</v>
+        <v>-8.90999984741211</v>
       </c>
     </row>
     <row r="14">
@@ -2002,7 +1996,7 @@
       <c r="B14" s="13">
         <v>39814</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="19" t="s">
@@ -2037,7 +2031,7 @@
       <c r="B15" s="12">
         <v>39855</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="18" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="18" t="s">
@@ -2072,7 +2066,7 @@
       <c r="B16" s="13">
         <v>40098</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="19" t="s">
@@ -2107,7 +2101,7 @@
       <c r="B17" s="12">
         <v>40682</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="18" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="18" t="s">
@@ -2142,7 +2136,7 @@
       <c r="B18" s="13">
         <v>40776</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="19" t="s">
@@ -2177,7 +2171,7 @@
       <c r="B19" s="12">
         <v>40870</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="18" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="18" t="s">
@@ -2212,7 +2206,7 @@
       <c r="B20" s="13">
         <v>41103</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="19" t="s">
@@ -2236,8 +2230,8 @@
       <c r="J20" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K20" s="20">
-        <v>0.99000000953674316</v>
+      <c r="K20" s="15">
+        <v>-0.99000000953674316</v>
       </c>
     </row>
     <row r="21">
@@ -2247,7 +2241,7 @@
       <c r="B21" s="12">
         <v>40248</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="18" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="18" t="s">
@@ -2282,7 +2276,7 @@
       <c r="B22" s="13">
         <v>40289</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="19" t="s">
         <v>32</v>
       </c>
       <c r="D22" s="19" t="s">
@@ -2317,7 +2311,7 @@
       <c r="B23" s="12">
         <v>40532</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="18" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="18" t="s">
@@ -2342,7 +2336,7 @@
         <v>39</v>
       </c>
       <c r="K23" s="14">
-        <v>8.90999984741211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2352,7 +2346,7 @@
       <c r="B24" s="13">
         <v>41116</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="19" t="s">
         <v>32</v>
       </c>
       <c r="D24" s="19" t="s">
@@ -2387,7 +2381,7 @@
       <c r="B25" s="12">
         <v>41210</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="18" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="18" t="s">
@@ -2422,7 +2416,7 @@
       <c r="B26" s="13">
         <v>41304</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="19" t="s">
         <v>32</v>
       </c>
       <c r="D26" s="19" t="s">
@@ -2457,7 +2451,7 @@
       <c r="B27" s="12">
         <v>41537</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="18" t="s">
         <v>32</v>
       </c>
       <c r="D27" s="18" t="s">
@@ -2481,7 +2475,7 @@
       <c r="J27" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="K27" s="20">
+      <c r="K27" s="14">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -2492,7 +2486,7 @@
       <c r="B28" s="13">
         <v>39815</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="19" t="s">
         <v>40</v>
       </c>
       <c r="D28" s="19" t="s">
@@ -2527,7 +2521,7 @@
       <c r="B29" s="12">
         <v>39909</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="18" t="s">
         <v>40</v>
       </c>
       <c r="D29" s="18" t="s">
@@ -2562,7 +2556,7 @@
       <c r="B30" s="13">
         <v>40142</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="19" t="s">
         <v>40</v>
       </c>
       <c r="D30" s="19" t="s">
@@ -2586,7 +2580,7 @@
       <c r="J30" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="K30" s="20">
+      <c r="K30" s="15">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -2597,7 +2591,7 @@
       <c r="B31" s="12">
         <v>40682</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="18" t="s">
         <v>40</v>
       </c>
       <c r="D31" s="18" t="s">
@@ -2632,7 +2626,7 @@
       <c r="B32" s="13">
         <v>40723</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="19" t="s">
         <v>40</v>
       </c>
       <c r="D32" s="19" t="s">
@@ -2667,7 +2661,7 @@
       <c r="B33" s="12">
         <v>40966</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="18" t="s">
         <v>40</v>
       </c>
       <c r="D33" s="18" t="s">
@@ -2702,7 +2696,7 @@
       <c r="B34" s="13">
         <v>41550</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="19" t="s">
         <v>40</v>
       </c>
       <c r="D34" s="19" t="s">
@@ -2737,7 +2731,7 @@
       <c r="B35" s="12">
         <v>40155</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="18" t="s">
         <v>47</v>
       </c>
       <c r="D35" s="18" t="s">
@@ -2772,7 +2766,7 @@
       <c r="B36" s="13">
         <v>40249</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="19" t="s">
         <v>47</v>
       </c>
       <c r="D36" s="19" t="s">
@@ -2807,7 +2801,7 @@
       <c r="B37" s="12">
         <v>40343</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="18" t="s">
         <v>47</v>
       </c>
       <c r="D37" s="18" t="s">
@@ -2842,7 +2836,7 @@
       <c r="B38" s="13">
         <v>40576</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="19" t="s">
         <v>47</v>
       </c>
       <c r="D38" s="19" t="s">
@@ -2866,8 +2860,8 @@
       <c r="J38" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="K38" s="20">
-        <v>0.99000000953674316</v>
+      <c r="K38" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2877,7 +2871,7 @@
       <c r="B39" s="12">
         <v>41116</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="18" t="s">
         <v>47</v>
       </c>
       <c r="D39" s="18" t="s">
@@ -2912,7 +2906,7 @@
       <c r="B40" s="13">
         <v>41157</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="19" t="s">
         <v>47</v>
       </c>
       <c r="D40" s="19" t="s">
@@ -2947,7 +2941,7 @@
       <c r="B41" s="12">
         <v>41400</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="18" t="s">
         <v>47</v>
       </c>
       <c r="D41" s="18" t="s">
@@ -2982,7 +2976,7 @@
       <c r="B42" s="13">
         <v>40005</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="19" t="s">
         <v>54</v>
       </c>
       <c r="D42" s="19" t="s">
@@ -3017,7 +3011,7 @@
       <c r="B43" s="12">
         <v>40589</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="18" t="s">
         <v>54</v>
       </c>
       <c r="D43" s="18" t="s">
@@ -3052,7 +3046,7 @@
       <c r="B44" s="13">
         <v>40683</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="19" t="s">
         <v>54</v>
       </c>
       <c r="D44" s="19" t="s">
@@ -3087,7 +3081,7 @@
       <c r="B45" s="12">
         <v>40777</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="18" t="s">
         <v>54</v>
       </c>
       <c r="D45" s="18" t="s">
@@ -3122,7 +3116,7 @@
       <c r="B46" s="13">
         <v>41010</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="19" t="s">
         <v>54</v>
       </c>
       <c r="D46" s="19" t="s">
@@ -3146,7 +3140,7 @@
       <c r="J46" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="K46" s="20">
+      <c r="K46" s="15">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -3157,7 +3151,7 @@
       <c r="B47" s="12">
         <v>41550</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="18" t="s">
         <v>54</v>
       </c>
       <c r="D47" s="18" t="s">
@@ -3192,7 +3186,7 @@
       <c r="B48" s="13">
         <v>41591</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="19" t="s">
         <v>54</v>
       </c>
       <c r="D48" s="19" t="s">
@@ -3227,7 +3221,7 @@
       <c r="B49" s="12">
         <v>40155</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="18" t="s">
         <v>59</v>
       </c>
       <c r="D49" s="18" t="s">
@@ -3262,7 +3256,7 @@
       <c r="B50" s="13">
         <v>40196</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="19" t="s">
         <v>59</v>
       </c>
       <c r="D50" s="19" t="s">
@@ -3297,7 +3291,7 @@
       <c r="B51" s="12">
         <v>40439</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="18" t="s">
         <v>59</v>
       </c>
       <c r="D51" s="18" t="s">
@@ -3332,7 +3326,7 @@
       <c r="B52" s="13">
         <v>41023</v>
       </c>
-      <c r="C52" s="23" t="s">
+      <c r="C52" s="19" t="s">
         <v>59</v>
       </c>
       <c r="D52" s="19" t="s">
@@ -3357,7 +3351,7 @@
         <v>65</v>
       </c>
       <c r="K52" s="15">
-        <v>1.9800000190734863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -3367,7 +3361,7 @@
       <c r="B53" s="12">
         <v>41117</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="18" t="s">
         <v>59</v>
       </c>
       <c r="D53" s="18" t="s">
@@ -3402,7 +3396,7 @@
       <c r="B54" s="13">
         <v>41211</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C54" s="19" t="s">
         <v>59</v>
       </c>
       <c r="D54" s="19" t="s">
@@ -3437,7 +3431,7 @@
       <c r="B55" s="12">
         <v>41444</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="18" t="s">
         <v>59</v>
       </c>
       <c r="D55" s="18" t="s">
@@ -3461,7 +3455,7 @@
       <c r="J55" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="K55" s="20">
+      <c r="K55" s="14">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -3472,7 +3466,7 @@
       <c r="B56" s="13">
         <v>39816</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C56" s="19" t="s">
         <v>66</v>
       </c>
       <c r="D56" s="19" t="s">
@@ -3507,7 +3501,7 @@
       <c r="B57" s="12">
         <v>40049</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C57" s="18" t="s">
         <v>66</v>
       </c>
       <c r="D57" s="18" t="s">
@@ -3531,7 +3525,7 @@
       <c r="J57" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="K57" s="20">
+      <c r="K57" s="14">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -3542,7 +3536,7 @@
       <c r="B58" s="13">
         <v>40589</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C58" s="19" t="s">
         <v>66</v>
       </c>
       <c r="D58" s="19" t="s">
@@ -3577,7 +3571,7 @@
       <c r="B59" s="12">
         <v>40630</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="18" t="s">
         <v>66</v>
       </c>
       <c r="D59" s="18" t="s">
@@ -3612,7 +3606,7 @@
       <c r="B60" s="13">
         <v>40873</v>
       </c>
-      <c r="C60" s="23" t="s">
+      <c r="C60" s="19" t="s">
         <v>66</v>
       </c>
       <c r="D60" s="19" t="s">
@@ -3647,7 +3641,7 @@
       <c r="B61" s="12">
         <v>41457</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="18" t="s">
         <v>66</v>
       </c>
       <c r="D61" s="18" t="s">
@@ -3682,7 +3676,7 @@
       <c r="B62" s="13">
         <v>41551</v>
       </c>
-      <c r="C62" s="23" t="s">
+      <c r="C62" s="19" t="s">
         <v>66</v>
       </c>
       <c r="D62" s="19" t="s">
@@ -3717,7 +3711,7 @@
       <c r="B63" s="12">
         <v>40062</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="18" t="s">
         <v>73</v>
       </c>
       <c r="D63" s="18" t="s">
@@ -3752,7 +3746,7 @@
       <c r="B64" s="13">
         <v>40156</v>
       </c>
-      <c r="C64" s="23" t="s">
+      <c r="C64" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D64" s="19" t="s">
@@ -3787,7 +3781,7 @@
       <c r="B65" s="12">
         <v>40250</v>
       </c>
-      <c r="C65" s="22" t="s">
+      <c r="C65" s="18" t="s">
         <v>73</v>
       </c>
       <c r="D65" s="18" t="s">
@@ -3822,7 +3816,7 @@
       <c r="B66" s="13">
         <v>40483</v>
       </c>
-      <c r="C66" s="23" t="s">
+      <c r="C66" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D66" s="19" t="s">
@@ -3846,7 +3840,7 @@
       <c r="J66" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="K66" s="20">
+      <c r="K66" s="15">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -3857,7 +3851,7 @@
       <c r="B67" s="12">
         <v>41023</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C67" s="18" t="s">
         <v>73</v>
       </c>
       <c r="D67" s="18" t="s">
@@ -3892,7 +3886,7 @@
       <c r="B68" s="13">
         <v>41064</v>
       </c>
-      <c r="C68" s="23" t="s">
+      <c r="C68" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D68" s="19" t="s">
@@ -3927,7 +3921,7 @@
       <c r="B69" s="12">
         <v>41307</v>
       </c>
-      <c r="C69" s="22" t="s">
+      <c r="C69" s="18" t="s">
         <v>73</v>
       </c>
       <c r="D69" s="18" t="s">
@@ -3962,7 +3956,7 @@
       <c r="B70" s="13">
         <v>39912</v>
       </c>
-      <c r="C70" s="23" t="s">
+      <c r="C70" s="19" t="s">
         <v>80</v>
       </c>
       <c r="D70" s="19" t="s">
@@ -3997,7 +3991,7 @@
       <c r="B71" s="12">
         <v>40496</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="C71" s="18" t="s">
         <v>80</v>
       </c>
       <c r="D71" s="18" t="s">
@@ -4032,7 +4026,7 @@
       <c r="B72" s="13">
         <v>40590</v>
       </c>
-      <c r="C72" s="23" t="s">
+      <c r="C72" s="19" t="s">
         <v>80</v>
       </c>
       <c r="D72" s="19" t="s">
@@ -4067,7 +4061,7 @@
       <c r="B73" s="12">
         <v>40684</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C73" s="18" t="s">
         <v>80</v>
       </c>
       <c r="D73" s="18" t="s">
@@ -4102,7 +4096,7 @@
       <c r="B74" s="13">
         <v>40917</v>
       </c>
-      <c r="C74" s="23" t="s">
+      <c r="C74" s="19" t="s">
         <v>80</v>
       </c>
       <c r="D74" s="19" t="s">
@@ -4126,7 +4120,7 @@
       <c r="J74" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K74" s="20">
+      <c r="K74" s="15">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -4137,7 +4131,7 @@
       <c r="B75" s="12">
         <v>41457</v>
       </c>
-      <c r="C75" s="22" t="s">
+      <c r="C75" s="18" t="s">
         <v>80</v>
       </c>
       <c r="D75" s="18" t="s">
@@ -4172,7 +4166,7 @@
       <c r="B76" s="13">
         <v>41498</v>
       </c>
-      <c r="C76" s="23" t="s">
+      <c r="C76" s="19" t="s">
         <v>80</v>
       </c>
       <c r="D76" s="19" t="s">
@@ -4207,7 +4201,7 @@
       <c r="B77" s="12">
         <v>40062</v>
       </c>
-      <c r="C77" s="22" t="s">
+      <c r="C77" s="18" t="s">
         <v>86</v>
       </c>
       <c r="D77" s="18" t="s">
@@ -4242,7 +4236,7 @@
       <c r="B78" s="13">
         <v>40103</v>
       </c>
-      <c r="C78" s="23" t="s">
+      <c r="C78" s="19" t="s">
         <v>86</v>
       </c>
       <c r="D78" s="19" t="s">
@@ -4277,7 +4271,7 @@
       <c r="B79" s="12">
         <v>40346</v>
       </c>
-      <c r="C79" s="22" t="s">
+      <c r="C79" s="18" t="s">
         <v>86</v>
       </c>
       <c r="D79" s="18" t="s">
@@ -4312,7 +4306,7 @@
       <c r="B80" s="13">
         <v>40930</v>
       </c>
-      <c r="C80" s="23" t="s">
+      <c r="C80" s="19" t="s">
         <v>86</v>
       </c>
       <c r="D80" s="19" t="s">
@@ -4347,7 +4341,7 @@
       <c r="B81" s="12">
         <v>41024</v>
       </c>
-      <c r="C81" s="22" t="s">
+      <c r="C81" s="18" t="s">
         <v>86</v>
       </c>
       <c r="D81" s="18" t="s">
@@ -4382,7 +4376,7 @@
       <c r="B82" s="13">
         <v>41118</v>
       </c>
-      <c r="C82" s="23" t="s">
+      <c r="C82" s="19" t="s">
         <v>86</v>
       </c>
       <c r="D82" s="19" t="s">
@@ -4417,7 +4411,7 @@
       <c r="B83" s="12">
         <v>41351</v>
       </c>
-      <c r="C83" s="22" t="s">
+      <c r="C83" s="18" t="s">
         <v>86</v>
       </c>
       <c r="D83" s="18" t="s">
@@ -4441,7 +4435,7 @@
       <c r="J83" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="K83" s="20">
+      <c r="K83" s="14">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -4452,7 +4446,7 @@
       <c r="B84" s="13">
         <v>39956</v>
       </c>
-      <c r="C84" s="23" t="s">
+      <c r="C84" s="19" t="s">
         <v>91</v>
       </c>
       <c r="D84" s="19" t="s">
@@ -4476,8 +4470,8 @@
       <c r="J84" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="K84" s="20">
-        <v>0.99000000953674316</v>
+      <c r="K84" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -4487,7 +4481,7 @@
       <c r="B85" s="12">
         <v>40496</v>
       </c>
-      <c r="C85" s="22" t="s">
+      <c r="C85" s="18" t="s">
         <v>91</v>
       </c>
       <c r="D85" s="18" t="s">
@@ -4522,7 +4516,7 @@
       <c r="B86" s="13">
         <v>40537</v>
       </c>
-      <c r="C86" s="23" t="s">
+      <c r="C86" s="19" t="s">
         <v>91</v>
       </c>
       <c r="D86" s="19" t="s">
@@ -4557,7 +4551,7 @@
       <c r="B87" s="12">
         <v>40780</v>
       </c>
-      <c r="C87" s="22" t="s">
+      <c r="C87" s="18" t="s">
         <v>91</v>
       </c>
       <c r="D87" s="18" t="s">
@@ -4592,7 +4586,7 @@
       <c r="B88" s="13">
         <v>41364</v>
       </c>
-      <c r="C88" s="23" t="s">
+      <c r="C88" s="19" t="s">
         <v>91</v>
       </c>
       <c r="D88" s="19" t="s">
@@ -4627,7 +4621,7 @@
       <c r="B89" s="12">
         <v>41458</v>
       </c>
-      <c r="C89" s="22" t="s">
+      <c r="C89" s="18" t="s">
         <v>91</v>
       </c>
       <c r="D89" s="18" t="s">
@@ -4662,7 +4656,7 @@
       <c r="B90" s="13">
         <v>41552</v>
       </c>
-      <c r="C90" s="23" t="s">
+      <c r="C90" s="19" t="s">
         <v>91</v>
       </c>
       <c r="D90" s="19" t="s">
@@ -4697,7 +4691,7 @@
       <c r="B91" s="12">
         <v>39969</v>
       </c>
-      <c r="C91" s="22" t="s">
+      <c r="C91" s="18" t="s">
         <v>98</v>
       </c>
       <c r="D91" s="18" t="s">
@@ -4732,7 +4726,7 @@
       <c r="B92" s="13">
         <v>40063</v>
       </c>
-      <c r="C92" s="23" t="s">
+      <c r="C92" s="19" t="s">
         <v>98</v>
       </c>
       <c r="D92" s="19" t="s">
@@ -4767,7 +4761,7 @@
       <c r="B93" s="12">
         <v>40157</v>
       </c>
-      <c r="C93" s="22" t="s">
+      <c r="C93" s="18" t="s">
         <v>98</v>
       </c>
       <c r="D93" s="18" t="s">
@@ -4802,7 +4796,7 @@
       <c r="B94" s="13">
         <v>40390</v>
       </c>
-      <c r="C94" s="23" t="s">
+      <c r="C94" s="19" t="s">
         <v>98</v>
       </c>
       <c r="D94" s="19" t="s">
@@ -4826,7 +4820,7 @@
       <c r="J94" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="K94" s="20">
+      <c r="K94" s="15">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -4837,7 +4831,7 @@
       <c r="B95" s="12">
         <v>40930</v>
       </c>
-      <c r="C95" s="22" t="s">
+      <c r="C95" s="18" t="s">
         <v>98</v>
       </c>
       <c r="D95" s="18" t="s">
@@ -4872,7 +4866,7 @@
       <c r="B96" s="13">
         <v>40971</v>
       </c>
-      <c r="C96" s="23" t="s">
+      <c r="C96" s="19" t="s">
         <v>98</v>
       </c>
       <c r="D96" s="19" t="s">
@@ -4907,7 +4901,7 @@
       <c r="B97" s="12">
         <v>41214</v>
       </c>
-      <c r="C97" s="22" t="s">
+      <c r="C97" s="18" t="s">
         <v>98</v>
       </c>
       <c r="D97" s="18" t="s">
@@ -4942,7 +4936,7 @@
       <c r="B98" s="13">
         <v>39819</v>
       </c>
-      <c r="C98" s="23" t="s">
+      <c r="C98" s="19" t="s">
         <v>105</v>
       </c>
       <c r="D98" s="19" t="s">
@@ -4977,7 +4971,7 @@
       <c r="B99" s="12">
         <v>40403</v>
       </c>
-      <c r="C99" s="22" t="s">
+      <c r="C99" s="18" t="s">
         <v>105</v>
       </c>
       <c r="D99" s="18" t="s">
@@ -5012,7 +5006,7 @@
       <c r="B100" s="13">
         <v>40497</v>
       </c>
-      <c r="C100" s="23" t="s">
+      <c r="C100" s="19" t="s">
         <v>105</v>
       </c>
       <c r="D100" s="19" t="s">
@@ -5047,7 +5041,7 @@
       <c r="B101" s="12">
         <v>40591</v>
       </c>
-      <c r="C101" s="22" t="s">
+      <c r="C101" s="18" t="s">
         <v>105</v>
       </c>
       <c r="D101" s="18" t="s">
@@ -5082,7 +5076,7 @@
       <c r="B102" s="13">
         <v>40824</v>
       </c>
-      <c r="C102" s="23" t="s">
+      <c r="C102" s="19" t="s">
         <v>105</v>
       </c>
       <c r="D102" s="19" t="s">
@@ -5106,7 +5100,7 @@
       <c r="J102" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="K102" s="20">
+      <c r="K102" s="15">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -5117,7 +5111,7 @@
       <c r="B103" s="12">
         <v>41364</v>
       </c>
-      <c r="C103" s="22" t="s">
+      <c r="C103" s="18" t="s">
         <v>105</v>
       </c>
       <c r="D103" s="18" t="s">
@@ -5152,7 +5146,7 @@
       <c r="B104" s="13">
         <v>41405</v>
       </c>
-      <c r="C104" s="23" t="s">
+      <c r="C104" s="19" t="s">
         <v>105</v>
       </c>
       <c r="D104" s="19" t="s">
@@ -5187,7 +5181,7 @@
       <c r="B105" s="12">
         <v>39969</v>
       </c>
-      <c r="C105" s="22" t="s">
+      <c r="C105" s="18" t="s">
         <v>112</v>
       </c>
       <c r="D105" s="18" t="s">
@@ -5222,7 +5216,7 @@
       <c r="B106" s="13">
         <v>40010</v>
       </c>
-      <c r="C106" s="23" t="s">
+      <c r="C106" s="19" t="s">
         <v>112</v>
       </c>
       <c r="D106" s="19" t="s">
@@ -5257,7 +5251,7 @@
       <c r="B107" s="12">
         <v>40253</v>
       </c>
-      <c r="C107" s="22" t="s">
+      <c r="C107" s="18" t="s">
         <v>112</v>
       </c>
       <c r="D107" s="18" t="s">
@@ -5292,7 +5286,7 @@
       <c r="B108" s="13">
         <v>40837</v>
       </c>
-      <c r="C108" s="23" t="s">
+      <c r="C108" s="19" t="s">
         <v>112</v>
       </c>
       <c r="D108" s="19" t="s">
@@ -5317,7 +5311,7 @@
         <v>118</v>
       </c>
       <c r="K108" s="15">
-        <v>1.9800000190734863</v>
+        <v>-1.9800000190734863</v>
       </c>
     </row>
     <row r="109">
@@ -5327,7 +5321,7 @@
       <c r="B109" s="12">
         <v>40931</v>
       </c>
-      <c r="C109" s="22" t="s">
+      <c r="C109" s="18" t="s">
         <v>112</v>
       </c>
       <c r="D109" s="18" t="s">
@@ -5362,7 +5356,7 @@
       <c r="B110" s="13">
         <v>41025</v>
       </c>
-      <c r="C110" s="23" t="s">
+      <c r="C110" s="19" t="s">
         <v>112</v>
       </c>
       <c r="D110" s="19" t="s">
@@ -5397,7 +5391,7 @@
       <c r="B111" s="12">
         <v>41258</v>
       </c>
-      <c r="C111" s="22" t="s">
+      <c r="C111" s="18" t="s">
         <v>112</v>
       </c>
       <c r="D111" s="18" t="s">
@@ -5421,8 +5415,8 @@
       <c r="J111" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="K111" s="20">
-        <v>0.99000000953674316</v>
+      <c r="K111" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -5432,7 +5426,7 @@
       <c r="B112" s="13">
         <v>39863</v>
       </c>
-      <c r="C112" s="23" t="s">
+      <c r="C112" s="19" t="s">
         <v>119</v>
       </c>
       <c r="D112" s="19" t="s">
@@ -5456,7 +5450,7 @@
       <c r="J112" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="K112" s="20">
+      <c r="K112" s="15">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -5467,7 +5461,7 @@
       <c r="B113" s="12">
         <v>40403</v>
       </c>
-      <c r="C113" s="22" t="s">
+      <c r="C113" s="18" t="s">
         <v>119</v>
       </c>
       <c r="D113" s="18" t="s">
@@ -5502,7 +5496,7 @@
       <c r="B114" s="13">
         <v>40444</v>
       </c>
-      <c r="C114" s="23" t="s">
+      <c r="C114" s="19" t="s">
         <v>119</v>
       </c>
       <c r="D114" s="19" t="s">
@@ -5537,7 +5531,7 @@
       <c r="B115" s="12">
         <v>40687</v>
       </c>
-      <c r="C115" s="22" t="s">
+      <c r="C115" s="18" t="s">
         <v>119</v>
       </c>
       <c r="D115" s="18" t="s">
@@ -5572,7 +5566,7 @@
       <c r="B116" s="13">
         <v>41271</v>
       </c>
-      <c r="C116" s="23" t="s">
+      <c r="C116" s="19" t="s">
         <v>119</v>
       </c>
       <c r="D116" s="19" t="s">
@@ -5607,7 +5601,7 @@
       <c r="B117" s="12">
         <v>41365</v>
       </c>
-      <c r="C117" s="22" t="s">
+      <c r="C117" s="18" t="s">
         <v>119</v>
       </c>
       <c r="D117" s="18" t="s">
@@ -5642,7 +5636,7 @@
       <c r="B118" s="13">
         <v>41459</v>
       </c>
-      <c r="C118" s="23" t="s">
+      <c r="C118" s="19" t="s">
         <v>119</v>
       </c>
       <c r="D118" s="19" t="s">
@@ -5677,7 +5671,7 @@
       <c r="B119" s="12">
         <v>39876</v>
       </c>
-      <c r="C119" s="22" t="s">
+      <c r="C119" s="18" t="s">
         <v>127</v>
       </c>
       <c r="D119" s="18" t="s">
@@ -5712,7 +5706,7 @@
       <c r="B120" s="13">
         <v>39970</v>
       </c>
-      <c r="C120" s="23" t="s">
+      <c r="C120" s="19" t="s">
         <v>127</v>
       </c>
       <c r="D120" s="19" t="s">
@@ -5747,7 +5741,7 @@
       <c r="B121" s="12">
         <v>40064</v>
       </c>
-      <c r="C121" s="22" t="s">
+      <c r="C121" s="18" t="s">
         <v>127</v>
       </c>
       <c r="D121" s="18" t="s">
@@ -5782,7 +5776,7 @@
       <c r="B122" s="13">
         <v>40297</v>
       </c>
-      <c r="C122" s="23" t="s">
+      <c r="C122" s="19" t="s">
         <v>127</v>
       </c>
       <c r="D122" s="19" t="s">
@@ -5806,7 +5800,7 @@
       <c r="J122" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="K122" s="20">
+      <c r="K122" s="15">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -5817,7 +5811,7 @@
       <c r="B123" s="12">
         <v>40837</v>
       </c>
-      <c r="C123" s="22" t="s">
+      <c r="C123" s="18" t="s">
         <v>127</v>
       </c>
       <c r="D123" s="18" t="s">
@@ -5852,7 +5846,7 @@
       <c r="B124" s="13">
         <v>40878</v>
       </c>
-      <c r="C124" s="23" t="s">
+      <c r="C124" s="19" t="s">
         <v>127</v>
       </c>
       <c r="D124" s="19" t="s">
@@ -5887,7 +5881,7 @@
       <c r="B125" s="12">
         <v>41121</v>
       </c>
-      <c r="C125" s="22" t="s">
+      <c r="C125" s="18" t="s">
         <v>127</v>
       </c>
       <c r="D125" s="18" t="s">
@@ -5922,7 +5916,7 @@
       <c r="B126" s="13">
         <v>40310</v>
       </c>
-      <c r="C126" s="23" t="s">
+      <c r="C126" s="19" t="s">
         <v>134</v>
       </c>
       <c r="D126" s="19" t="s">
@@ -5957,7 +5951,7 @@
       <c r="B127" s="12">
         <v>40404</v>
       </c>
-      <c r="C127" s="22" t="s">
+      <c r="C127" s="18" t="s">
         <v>134</v>
       </c>
       <c r="D127" s="18" t="s">
@@ -5992,7 +5986,7 @@
       <c r="B128" s="13">
         <v>40498</v>
       </c>
-      <c r="C128" s="23" t="s">
+      <c r="C128" s="19" t="s">
         <v>134</v>
       </c>
       <c r="D128" s="19" t="s">
@@ -6027,7 +6021,7 @@
       <c r="B129" s="12">
         <v>40731</v>
       </c>
-      <c r="C129" s="22" t="s">
+      <c r="C129" s="18" t="s">
         <v>134</v>
       </c>
       <c r="D129" s="18" t="s">
@@ -6051,7 +6045,7 @@
       <c r="J129" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="K129" s="20">
+      <c r="K129" s="14">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -6062,7 +6056,7 @@
       <c r="B130" s="13">
         <v>41271</v>
       </c>
-      <c r="C130" s="23" t="s">
+      <c r="C130" s="19" t="s">
         <v>134</v>
       </c>
       <c r="D130" s="19" t="s">
@@ -6097,7 +6091,7 @@
       <c r="B131" s="12">
         <v>41312</v>
       </c>
-      <c r="C131" s="22" t="s">
+      <c r="C131" s="18" t="s">
         <v>134</v>
       </c>
       <c r="D131" s="18" t="s">
@@ -6132,7 +6126,7 @@
       <c r="B132" s="13">
         <v>41555</v>
       </c>
-      <c r="C132" s="23" t="s">
+      <c r="C132" s="19" t="s">
         <v>134</v>
       </c>
       <c r="D132" s="19" t="s">
@@ -6167,7 +6161,7 @@
       <c r="B133" s="12">
         <v>39876</v>
       </c>
-      <c r="C133" s="22" t="s">
+      <c r="C133" s="18" t="s">
         <v>141</v>
       </c>
       <c r="D133" s="18" t="s">
@@ -6202,7 +6196,7 @@
       <c r="B134" s="13">
         <v>39917</v>
       </c>
-      <c r="C134" s="23" t="s">
+      <c r="C134" s="19" t="s">
         <v>141</v>
       </c>
       <c r="D134" s="19" t="s">
@@ -6237,7 +6231,7 @@
       <c r="B135" s="12">
         <v>40160</v>
       </c>
-      <c r="C135" s="22" t="s">
+      <c r="C135" s="18" t="s">
         <v>141</v>
       </c>
       <c r="D135" s="18" t="s">
@@ -6272,7 +6266,7 @@
       <c r="B136" s="13">
         <v>40744</v>
       </c>
-      <c r="C136" s="23" t="s">
+      <c r="C136" s="19" t="s">
         <v>141</v>
       </c>
       <c r="D136" s="19" t="s">
@@ -6307,7 +6301,7 @@
       <c r="B137" s="12">
         <v>40838</v>
       </c>
-      <c r="C137" s="22" t="s">
+      <c r="C137" s="18" t="s">
         <v>141</v>
       </c>
       <c r="D137" s="18" t="s">
@@ -6342,7 +6336,7 @@
       <c r="B138" s="13">
         <v>40932</v>
       </c>
-      <c r="C138" s="23" t="s">
+      <c r="C138" s="19" t="s">
         <v>141</v>
       </c>
       <c r="D138" s="19" t="s">
@@ -6377,7 +6371,7 @@
       <c r="B139" s="12">
         <v>41165</v>
       </c>
-      <c r="C139" s="22" t="s">
+      <c r="C139" s="18" t="s">
         <v>141</v>
       </c>
       <c r="D139" s="18" t="s">
@@ -6412,7 +6406,7 @@
       <c r="B140" s="13">
         <v>40310</v>
       </c>
-      <c r="C140" s="23" t="s">
+      <c r="C140" s="19" t="s">
         <v>147</v>
       </c>
       <c r="D140" s="19" t="s">
@@ -6447,7 +6441,7 @@
       <c r="B141" s="12">
         <v>40351</v>
       </c>
-      <c r="C141" s="22" t="s">
+      <c r="C141" s="18" t="s">
         <v>147</v>
       </c>
       <c r="D141" s="18" t="s">
@@ -6482,7 +6476,7 @@
       <c r="B142" s="13">
         <v>40594</v>
       </c>
-      <c r="C142" s="23" t="s">
+      <c r="C142" s="19" t="s">
         <v>147</v>
       </c>
       <c r="D142" s="19" t="s">
@@ -6517,7 +6511,7 @@
       <c r="B143" s="12">
         <v>41178</v>
       </c>
-      <c r="C143" s="22" t="s">
+      <c r="C143" s="18" t="s">
         <v>147</v>
       </c>
       <c r="D143" s="18" t="s">
@@ -6552,7 +6546,7 @@
       <c r="B144" s="13">
         <v>41272</v>
       </c>
-      <c r="C144" s="23" t="s">
+      <c r="C144" s="19" t="s">
         <v>147</v>
       </c>
       <c r="D144" s="19" t="s">
@@ -6587,7 +6581,7 @@
       <c r="B145" s="12">
         <v>41366</v>
       </c>
-      <c r="C145" s="22" t="s">
+      <c r="C145" s="18" t="s">
         <v>147</v>
       </c>
       <c r="D145" s="18" t="s">
@@ -6622,7 +6616,7 @@
       <c r="B146" s="13">
         <v>41599</v>
       </c>
-      <c r="C146" s="23" t="s">
+      <c r="C146" s="19" t="s">
         <v>147</v>
       </c>
       <c r="D146" s="19" t="s">
@@ -6646,7 +6640,7 @@
       <c r="J146" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="K146" s="20">
+      <c r="K146" s="15">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -6657,7 +6651,7 @@
       <c r="B147" s="12">
         <v>39877</v>
       </c>
-      <c r="C147" s="22" t="s">
+      <c r="C147" s="18" t="s">
         <v>152</v>
       </c>
       <c r="D147" s="18" t="s">
@@ -6692,7 +6686,7 @@
       <c r="B148" s="13">
         <v>39971</v>
       </c>
-      <c r="C148" s="23" t="s">
+      <c r="C148" s="19" t="s">
         <v>152</v>
       </c>
       <c r="D148" s="19" t="s">
@@ -6727,7 +6721,7 @@
       <c r="B149" s="12">
         <v>40204</v>
       </c>
-      <c r="C149" s="22" t="s">
+      <c r="C149" s="18" t="s">
         <v>152</v>
       </c>
       <c r="D149" s="18" t="s">
@@ -6751,7 +6745,7 @@
       <c r="J149" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="K149" s="20">
+      <c r="K149" s="14">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -6762,7 +6756,7 @@
       <c r="B150" s="13">
         <v>40744</v>
       </c>
-      <c r="C150" s="23" t="s">
+      <c r="C150" s="19" t="s">
         <v>152</v>
       </c>
       <c r="D150" s="19" t="s">
@@ -6797,7 +6791,7 @@
       <c r="B151" s="12">
         <v>40785</v>
       </c>
-      <c r="C151" s="22" t="s">
+      <c r="C151" s="18" t="s">
         <v>152</v>
       </c>
       <c r="D151" s="18" t="s">
@@ -6832,7 +6826,7 @@
       <c r="B152" s="13">
         <v>41028</v>
       </c>
-      <c r="C152" s="23" t="s">
+      <c r="C152" s="19" t="s">
         <v>152</v>
       </c>
       <c r="D152" s="19" t="s">
@@ -6867,7 +6861,7 @@
       <c r="B153" s="12">
         <v>41612</v>
       </c>
-      <c r="C153" s="22" t="s">
+      <c r="C153" s="18" t="s">
         <v>152</v>
       </c>
       <c r="D153" s="18" t="s">
@@ -6902,7 +6896,7 @@
       <c r="B154" s="13">
         <v>40217</v>
       </c>
-      <c r="C154" s="23" t="s">
+      <c r="C154" s="19" t="s">
         <v>159</v>
       </c>
       <c r="D154" s="19" t="s">
@@ -6937,7 +6931,7 @@
       <c r="B155" s="12">
         <v>40311</v>
       </c>
-      <c r="C155" s="22" t="s">
+      <c r="C155" s="18" t="s">
         <v>159</v>
       </c>
       <c r="D155" s="18" t="s">
@@ -6972,7 +6966,7 @@
       <c r="B156" s="13">
         <v>40405</v>
       </c>
-      <c r="C156" s="23" t="s">
+      <c r="C156" s="19" t="s">
         <v>159</v>
       </c>
       <c r="D156" s="19" t="s">
@@ -7007,7 +7001,7 @@
       <c r="B157" s="12">
         <v>40638</v>
       </c>
-      <c r="C157" s="22" t="s">
+      <c r="C157" s="18" t="s">
         <v>159</v>
       </c>
       <c r="D157" s="18" t="s">
@@ -7031,7 +7025,7 @@
       <c r="J157" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="K157" s="20">
+      <c r="K157" s="14">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -7042,7 +7036,7 @@
       <c r="B158" s="13">
         <v>41178</v>
       </c>
-      <c r="C158" s="23" t="s">
+      <c r="C158" s="19" t="s">
         <v>159</v>
       </c>
       <c r="D158" s="19" t="s">
@@ -7077,7 +7071,7 @@
       <c r="B159" s="12">
         <v>41219</v>
       </c>
-      <c r="C159" s="22" t="s">
+      <c r="C159" s="18" t="s">
         <v>159</v>
       </c>
       <c r="D159" s="18" t="s">
@@ -7112,7 +7106,7 @@
       <c r="B160" s="13">
         <v>41462</v>
       </c>
-      <c r="C160" s="23" t="s">
+      <c r="C160" s="19" t="s">
         <v>159</v>
       </c>
       <c r="D160" s="19" t="s">
@@ -7147,7 +7141,7 @@
       <c r="B161" s="12">
         <v>39824</v>
       </c>
-      <c r="C161" s="22" t="s">
+      <c r="C161" s="18" t="s">
         <v>166</v>
       </c>
       <c r="D161" s="18" t="s">
@@ -7182,7 +7176,7 @@
       <c r="B162" s="13">
         <v>40067</v>
       </c>
-      <c r="C162" s="23" t="s">
+      <c r="C162" s="19" t="s">
         <v>166</v>
       </c>
       <c r="D162" s="19" t="s">
@@ -7217,7 +7211,7 @@
       <c r="B163" s="12">
         <v>40651</v>
       </c>
-      <c r="C163" s="22" t="s">
+      <c r="C163" s="18" t="s">
         <v>166</v>
       </c>
       <c r="D163" s="18" t="s">
@@ -7252,7 +7246,7 @@
       <c r="B164" s="13">
         <v>40745</v>
       </c>
-      <c r="C164" s="23" t="s">
+      <c r="C164" s="19" t="s">
         <v>166</v>
       </c>
       <c r="D164" s="19" t="s">
@@ -7287,7 +7281,7 @@
       <c r="B165" s="12">
         <v>40839</v>
       </c>
-      <c r="C165" s="22" t="s">
+      <c r="C165" s="18" t="s">
         <v>166</v>
       </c>
       <c r="D165" s="18" t="s">
@@ -7322,7 +7316,7 @@
       <c r="B166" s="13">
         <v>41072</v>
       </c>
-      <c r="C166" s="23" t="s">
+      <c r="C166" s="19" t="s">
         <v>166</v>
       </c>
       <c r="D166" s="19" t="s">
@@ -7346,7 +7340,7 @@
       <c r="J166" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="K166" s="20">
+      <c r="K166" s="15">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -7357,7 +7351,7 @@
       <c r="B167" s="12">
         <v>41612</v>
       </c>
-      <c r="C167" s="22" t="s">
+      <c r="C167" s="18" t="s">
         <v>166</v>
       </c>
       <c r="D167" s="18" t="s">
@@ -7392,7 +7386,7 @@
       <c r="B168" s="13">
         <v>40217</v>
       </c>
-      <c r="C168" s="23" t="s">
+      <c r="C168" s="19" t="s">
         <v>173</v>
       </c>
       <c r="D168" s="19" t="s">
@@ -7427,7 +7421,7 @@
       <c r="B169" s="12">
         <v>40258</v>
       </c>
-      <c r="C169" s="22" t="s">
+      <c r="C169" s="18" t="s">
         <v>173</v>
       </c>
       <c r="D169" s="18" t="s">
@@ -7462,7 +7456,7 @@
       <c r="B170" s="13">
         <v>40501</v>
       </c>
-      <c r="C170" s="23" t="s">
+      <c r="C170" s="19" t="s">
         <v>173</v>
       </c>
       <c r="D170" s="19" t="s">
@@ -7497,7 +7491,7 @@
       <c r="B171" s="12">
         <v>41085</v>
       </c>
-      <c r="C171" s="22" t="s">
+      <c r="C171" s="18" t="s">
         <v>173</v>
       </c>
       <c r="D171" s="18" t="s">
@@ -7532,7 +7526,7 @@
       <c r="B172" s="13">
         <v>41179</v>
       </c>
-      <c r="C172" s="23" t="s">
+      <c r="C172" s="19" t="s">
         <v>173</v>
       </c>
       <c r="D172" s="19" t="s">
@@ -7567,7 +7561,7 @@
       <c r="B173" s="12">
         <v>41273</v>
       </c>
-      <c r="C173" s="22" t="s">
+      <c r="C173" s="18" t="s">
         <v>173</v>
       </c>
       <c r="D173" s="18" t="s">
@@ -7602,7 +7596,7 @@
       <c r="B174" s="13">
         <v>41506</v>
       </c>
-      <c r="C174" s="23" t="s">
+      <c r="C174" s="19" t="s">
         <v>173</v>
       </c>
       <c r="D174" s="19" t="s">
@@ -7626,7 +7620,7 @@
       <c r="J174" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="K174" s="20">
+      <c r="K174" s="15">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -7637,7 +7631,7 @@
       <c r="B175" s="12">
         <v>39878</v>
       </c>
-      <c r="C175" s="22" t="s">
+      <c r="C175" s="18" t="s">
         <v>180</v>
       </c>
       <c r="D175" s="18" t="s">
@@ -7672,7 +7666,7 @@
       <c r="B176" s="13">
         <v>40111</v>
       </c>
-      <c r="C176" s="23" t="s">
+      <c r="C176" s="19" t="s">
         <v>180</v>
       </c>
       <c r="D176" s="19" t="s">
@@ -7696,7 +7690,7 @@
       <c r="J176" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="K176" s="20">
+      <c r="K176" s="15">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -7707,7 +7701,7 @@
       <c r="B177" s="12">
         <v>40651</v>
       </c>
-      <c r="C177" s="22" t="s">
+      <c r="C177" s="18" t="s">
         <v>180</v>
       </c>
       <c r="D177" s="18" t="s">
@@ -7742,7 +7736,7 @@
       <c r="B178" s="13">
         <v>40692</v>
       </c>
-      <c r="C178" s="23" t="s">
+      <c r="C178" s="19" t="s">
         <v>180</v>
       </c>
       <c r="D178" s="19" t="s">
@@ -7777,7 +7771,7 @@
       <c r="B179" s="12">
         <v>40935</v>
       </c>
-      <c r="C179" s="22" t="s">
+      <c r="C179" s="18" t="s">
         <v>180</v>
       </c>
       <c r="D179" s="18" t="s">
@@ -7812,7 +7806,7 @@
       <c r="B180" s="13">
         <v>41519</v>
       </c>
-      <c r="C180" s="23" t="s">
+      <c r="C180" s="19" t="s">
         <v>180</v>
       </c>
       <c r="D180" s="19" t="s">
@@ -7847,7 +7841,7 @@
       <c r="B181" s="12">
         <v>41613</v>
       </c>
-      <c r="C181" s="22" t="s">
+      <c r="C181" s="18" t="s">
         <v>180</v>
       </c>
       <c r="D181" s="18" t="s">
@@ -7882,7 +7876,7 @@
       <c r="B182" s="13">
         <v>40124</v>
       </c>
-      <c r="C182" s="23" t="s">
+      <c r="C182" s="19" t="s">
         <v>187</v>
       </c>
       <c r="D182" s="19" t="s">
@@ -7917,7 +7911,7 @@
       <c r="B183" s="12">
         <v>40218</v>
       </c>
-      <c r="C183" s="22" t="s">
+      <c r="C183" s="18" t="s">
         <v>187</v>
       </c>
       <c r="D183" s="18" t="s">
@@ -7952,7 +7946,7 @@
       <c r="B184" s="13">
         <v>40312</v>
       </c>
-      <c r="C184" s="23" t="s">
+      <c r="C184" s="19" t="s">
         <v>187</v>
       </c>
       <c r="D184" s="19" t="s">
@@ -7987,7 +7981,7 @@
       <c r="B185" s="12">
         <v>40545</v>
       </c>
-      <c r="C185" s="22" t="s">
+      <c r="C185" s="18" t="s">
         <v>187</v>
       </c>
       <c r="D185" s="18" t="s">
@@ -8011,7 +8005,7 @@
       <c r="J185" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="K185" s="20">
+      <c r="K185" s="14">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -8022,7 +8016,7 @@
       <c r="B186" s="13">
         <v>41085</v>
       </c>
-      <c r="C186" s="23" t="s">
+      <c r="C186" s="19" t="s">
         <v>187</v>
       </c>
       <c r="D186" s="19" t="s">
@@ -8057,7 +8051,7 @@
       <c r="B187" s="12">
         <v>41126</v>
       </c>
-      <c r="C187" s="22" t="s">
+      <c r="C187" s="18" t="s">
         <v>187</v>
       </c>
       <c r="D187" s="18" t="s">
@@ -8092,7 +8086,7 @@
       <c r="B188" s="13">
         <v>41369</v>
       </c>
-      <c r="C188" s="23" t="s">
+      <c r="C188" s="19" t="s">
         <v>187</v>
       </c>
       <c r="D188" s="19" t="s">
@@ -8127,7 +8121,7 @@
       <c r="B189" s="12">
         <v>39974</v>
       </c>
-      <c r="C189" s="22" t="s">
+      <c r="C189" s="18" t="s">
         <v>194</v>
       </c>
       <c r="D189" s="18" t="s">
@@ -8162,7 +8156,7 @@
       <c r="B190" s="13">
         <v>40558</v>
       </c>
-      <c r="C190" s="23" t="s">
+      <c r="C190" s="19" t="s">
         <v>194</v>
       </c>
       <c r="D190" s="19" t="s">
@@ -8197,7 +8191,7 @@
       <c r="B191" s="12">
         <v>40652</v>
       </c>
-      <c r="C191" s="22" t="s">
+      <c r="C191" s="18" t="s">
         <v>194</v>
       </c>
       <c r="D191" s="18" t="s">
@@ -8232,7 +8226,7 @@
       <c r="B192" s="13">
         <v>40746</v>
       </c>
-      <c r="C192" s="23" t="s">
+      <c r="C192" s="19" t="s">
         <v>194</v>
       </c>
       <c r="D192" s="19" t="s">
@@ -8267,7 +8261,7 @@
       <c r="B193" s="12">
         <v>40979</v>
       </c>
-      <c r="C193" s="22" t="s">
+      <c r="C193" s="18" t="s">
         <v>194</v>
       </c>
       <c r="D193" s="18" t="s">
@@ -8291,7 +8285,7 @@
       <c r="J193" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="K193" s="20">
+      <c r="K193" s="14">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -8302,7 +8296,7 @@
       <c r="B194" s="13">
         <v>41519</v>
       </c>
-      <c r="C194" s="23" t="s">
+      <c r="C194" s="19" t="s">
         <v>194</v>
       </c>
       <c r="D194" s="19" t="s">
@@ -8337,7 +8331,7 @@
       <c r="B195" s="12">
         <v>41560</v>
       </c>
-      <c r="C195" s="22" t="s">
+      <c r="C195" s="18" t="s">
         <v>194</v>
       </c>
       <c r="D195" s="18" t="s">
@@ -8372,7 +8366,7 @@
       <c r="B196" s="13">
         <v>40124</v>
       </c>
-      <c r="C196" s="23" t="s">
+      <c r="C196" s="19" t="s">
         <v>201</v>
       </c>
       <c r="D196" s="19" t="s">
@@ -8407,7 +8401,7 @@
       <c r="B197" s="12">
         <v>40165</v>
       </c>
-      <c r="C197" s="22" t="s">
+      <c r="C197" s="18" t="s">
         <v>201</v>
       </c>
       <c r="D197" s="18" t="s">
@@ -8442,7 +8436,7 @@
       <c r="B198" s="13">
         <v>40408</v>
       </c>
-      <c r="C198" s="23" t="s">
+      <c r="C198" s="19" t="s">
         <v>201</v>
       </c>
       <c r="D198" s="19" t="s">
@@ -8477,7 +8471,7 @@
       <c r="B199" s="12">
         <v>40992</v>
       </c>
-      <c r="C199" s="22" t="s">
+      <c r="C199" s="18" t="s">
         <v>201</v>
       </c>
       <c r="D199" s="18" t="s">
@@ -8512,7 +8506,7 @@
       <c r="B200" s="13">
         <v>41086</v>
       </c>
-      <c r="C200" s="23" t="s">
+      <c r="C200" s="19" t="s">
         <v>201</v>
       </c>
       <c r="D200" s="19" t="s">
@@ -8547,7 +8541,7 @@
       <c r="B201" s="12">
         <v>41180</v>
       </c>
-      <c r="C201" s="22" t="s">
+      <c r="C201" s="18" t="s">
         <v>201</v>
       </c>
       <c r="D201" s="18" t="s">
@@ -8582,7 +8576,7 @@
       <c r="B202" s="13">
         <v>41413</v>
       </c>
-      <c r="C202" s="23" t="s">
+      <c r="C202" s="19" t="s">
         <v>201</v>
       </c>
       <c r="D202" s="19" t="s">
@@ -8606,7 +8600,7 @@
       <c r="J202" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="K202" s="20">
+      <c r="K202" s="15">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -8617,7 +8611,7 @@
       <c r="B203" s="12">
         <v>40018</v>
       </c>
-      <c r="C203" s="22" t="s">
+      <c r="C203" s="18" t="s">
         <v>208</v>
       </c>
       <c r="D203" s="18" t="s">
@@ -8641,7 +8635,7 @@
       <c r="J203" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="K203" s="20">
+      <c r="K203" s="14">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -8652,7 +8646,7 @@
       <c r="B204" s="13">
         <v>40558</v>
       </c>
-      <c r="C204" s="23" t="s">
+      <c r="C204" s="19" t="s">
         <v>208</v>
       </c>
       <c r="D204" s="19" t="s">
@@ -8687,7 +8681,7 @@
       <c r="B205" s="12">
         <v>40599</v>
       </c>
-      <c r="C205" s="22" t="s">
+      <c r="C205" s="18" t="s">
         <v>208</v>
       </c>
       <c r="D205" s="18" t="s">
@@ -8722,7 +8716,7 @@
       <c r="B206" s="13">
         <v>40842</v>
       </c>
-      <c r="C206" s="23" t="s">
+      <c r="C206" s="19" t="s">
         <v>208</v>
       </c>
       <c r="D206" s="19" t="s">
@@ -8757,7 +8751,7 @@
       <c r="B207" s="12">
         <v>41426</v>
       </c>
-      <c r="C207" s="22" t="s">
+      <c r="C207" s="18" t="s">
         <v>208</v>
       </c>
       <c r="D207" s="18" t="s">
@@ -8792,7 +8786,7 @@
       <c r="B208" s="13">
         <v>41520</v>
       </c>
-      <c r="C208" s="23" t="s">
+      <c r="C208" s="19" t="s">
         <v>208</v>
       </c>
       <c r="D208" s="19" t="s">
@@ -8827,7 +8821,7 @@
       <c r="B209" s="12">
         <v>41614</v>
       </c>
-      <c r="C209" s="22" t="s">
+      <c r="C209" s="18" t="s">
         <v>208</v>
       </c>
       <c r="D209" s="18" t="s">
@@ -8862,7 +8856,7 @@
       <c r="B210" s="13">
         <v>40031</v>
       </c>
-      <c r="C210" s="23" t="s">
+      <c r="C210" s="19" t="s">
         <v>215</v>
       </c>
       <c r="D210" s="19" t="s">
@@ -8897,7 +8891,7 @@
       <c r="B211" s="12">
         <v>40125</v>
       </c>
-      <c r="C211" s="22" t="s">
+      <c r="C211" s="18" t="s">
         <v>215</v>
       </c>
       <c r="D211" s="18" t="s">
@@ -8932,7 +8926,7 @@
       <c r="B212" s="13">
         <v>40219</v>
       </c>
-      <c r="C212" s="23" t="s">
+      <c r="C212" s="19" t="s">
         <v>215</v>
       </c>
       <c r="D212" s="19" t="s">
@@ -8967,7 +8961,7 @@
       <c r="B213" s="12">
         <v>40452</v>
       </c>
-      <c r="C213" s="22" t="s">
+      <c r="C213" s="18" t="s">
         <v>215</v>
       </c>
       <c r="D213" s="18" t="s">
@@ -8991,7 +8985,7 @@
       <c r="J213" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="K213" s="20">
+      <c r="K213" s="14">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -9002,7 +8996,7 @@
       <c r="B214" s="13">
         <v>40992</v>
       </c>
-      <c r="C214" s="23" t="s">
+      <c r="C214" s="19" t="s">
         <v>215</v>
       </c>
       <c r="D214" s="19" t="s">
@@ -9037,7 +9031,7 @@
       <c r="B215" s="12">
         <v>41033</v>
       </c>
-      <c r="C215" s="22" t="s">
+      <c r="C215" s="18" t="s">
         <v>215</v>
       </c>
       <c r="D215" s="18" t="s">
@@ -9072,7 +9066,7 @@
       <c r="B216" s="13">
         <v>41276</v>
       </c>
-      <c r="C216" s="23" t="s">
+      <c r="C216" s="19" t="s">
         <v>215</v>
       </c>
       <c r="D216" s="19" t="s">
@@ -9107,7 +9101,7 @@
       <c r="B217" s="12">
         <v>39881</v>
       </c>
-      <c r="C217" s="22" t="s">
+      <c r="C217" s="18" t="s">
         <v>221</v>
       </c>
       <c r="D217" s="18" t="s">
@@ -9142,7 +9136,7 @@
       <c r="B218" s="13">
         <v>40465</v>
       </c>
-      <c r="C218" s="23" t="s">
+      <c r="C218" s="19" t="s">
         <v>221</v>
       </c>
       <c r="D218" s="19" t="s">
@@ -9177,7 +9171,7 @@
       <c r="B219" s="12">
         <v>40559</v>
       </c>
-      <c r="C219" s="22" t="s">
+      <c r="C219" s="18" t="s">
         <v>221</v>
       </c>
       <c r="D219" s="18" t="s">
@@ -9212,7 +9206,7 @@
       <c r="B220" s="13">
         <v>40653</v>
       </c>
-      <c r="C220" s="23" t="s">
+      <c r="C220" s="19" t="s">
         <v>221</v>
       </c>
       <c r="D220" s="19" t="s">
@@ -9247,7 +9241,7 @@
       <c r="B221" s="12">
         <v>40886</v>
       </c>
-      <c r="C221" s="22" t="s">
+      <c r="C221" s="18" t="s">
         <v>221</v>
       </c>
       <c r="D221" s="18" t="s">
@@ -9271,7 +9265,7 @@
       <c r="J221" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="K221" s="20">
+      <c r="K221" s="14">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -9282,7 +9276,7 @@
       <c r="B222" s="13">
         <v>41426</v>
       </c>
-      <c r="C222" s="23" t="s">
+      <c r="C222" s="19" t="s">
         <v>221</v>
       </c>
       <c r="D222" s="19" t="s">
@@ -9317,7 +9311,7 @@
       <c r="B223" s="12">
         <v>41467</v>
       </c>
-      <c r="C223" s="22" t="s">
+      <c r="C223" s="18" t="s">
         <v>221</v>
       </c>
       <c r="D223" s="18" t="s">
@@ -9352,7 +9346,7 @@
       <c r="B224" s="13">
         <v>40031</v>
       </c>
-      <c r="C224" s="23" t="s">
+      <c r="C224" s="19" t="s">
         <v>228</v>
       </c>
       <c r="D224" s="19" t="s">
@@ -9387,7 +9381,7 @@
       <c r="B225" s="12">
         <v>40072</v>
       </c>
-      <c r="C225" s="22" t="s">
+      <c r="C225" s="18" t="s">
         <v>228</v>
       </c>
       <c r="D225" s="18" t="s">
@@ -9422,7 +9416,7 @@
       <c r="B226" s="13">
         <v>40315</v>
       </c>
-      <c r="C226" s="23" t="s">
+      <c r="C226" s="19" t="s">
         <v>228</v>
       </c>
       <c r="D226" s="19" t="s">
@@ -9457,7 +9451,7 @@
       <c r="B227" s="12">
         <v>40899</v>
       </c>
-      <c r="C227" s="22" t="s">
+      <c r="C227" s="18" t="s">
         <v>228</v>
       </c>
       <c r="D227" s="18" t="s">
@@ -9492,7 +9486,7 @@
       <c r="B228" s="13">
         <v>40993</v>
       </c>
-      <c r="C228" s="23" t="s">
+      <c r="C228" s="19" t="s">
         <v>228</v>
       </c>
       <c r="D228" s="19" t="s">
@@ -9527,7 +9521,7 @@
       <c r="B229" s="12">
         <v>41087</v>
       </c>
-      <c r="C229" s="22" t="s">
+      <c r="C229" s="18" t="s">
         <v>228</v>
       </c>
       <c r="D229" s="18" t="s">
@@ -9562,7 +9556,7 @@
       <c r="B230" s="13">
         <v>41320</v>
       </c>
-      <c r="C230" s="23" t="s">
+      <c r="C230" s="19" t="s">
         <v>228</v>
       </c>
       <c r="D230" s="19" t="s">
@@ -9586,7 +9580,7 @@
       <c r="J230" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="K230" s="20">
+      <c r="K230" s="15">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -9597,7 +9591,7 @@
       <c r="B231" s="12">
         <v>39925</v>
       </c>
-      <c r="C231" s="22" t="s">
+      <c r="C231" s="18" t="s">
         <v>235</v>
       </c>
       <c r="D231" s="18" t="s">
@@ -9621,7 +9615,7 @@
       <c r="J231" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="K231" s="20">
+      <c r="K231" s="14">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -9632,7 +9626,7 @@
       <c r="B232" s="13">
         <v>40465</v>
       </c>
-      <c r="C232" s="23" t="s">
+      <c r="C232" s="19" t="s">
         <v>235</v>
       </c>
       <c r="D232" s="19" t="s">
@@ -9667,7 +9661,7 @@
       <c r="B233" s="12">
         <v>40506</v>
       </c>
-      <c r="C233" s="22" t="s">
+      <c r="C233" s="18" t="s">
         <v>235</v>
       </c>
       <c r="D233" s="18" t="s">
@@ -9702,7 +9696,7 @@
       <c r="B234" s="13">
         <v>40749</v>
       </c>
-      <c r="C234" s="23" t="s">
+      <c r="C234" s="19" t="s">
         <v>235</v>
       </c>
       <c r="D234" s="19" t="s">
@@ -9737,7 +9731,7 @@
       <c r="B235" s="12">
         <v>41333</v>
       </c>
-      <c r="C235" s="22" t="s">
+      <c r="C235" s="18" t="s">
         <v>235</v>
       </c>
       <c r="D235" s="18" t="s">
@@ -9772,7 +9766,7 @@
       <c r="B236" s="13">
         <v>41427</v>
       </c>
-      <c r="C236" s="23" t="s">
+      <c r="C236" s="19" t="s">
         <v>235</v>
       </c>
       <c r="D236" s="19" t="s">
@@ -9807,7 +9801,7 @@
       <c r="B237" s="12">
         <v>41521</v>
       </c>
-      <c r="C237" s="22" t="s">
+      <c r="C237" s="18" t="s">
         <v>235</v>
       </c>
       <c r="D237" s="18" t="s">
@@ -9842,7 +9836,7 @@
       <c r="B238" s="13">
         <v>39938</v>
       </c>
-      <c r="C238" s="23" t="s">
+      <c r="C238" s="19" t="s">
         <v>242</v>
       </c>
       <c r="D238" s="19" t="s">
@@ -9877,7 +9871,7 @@
       <c r="B239" s="12">
         <v>40032</v>
       </c>
-      <c r="C239" s="22" t="s">
+      <c r="C239" s="18" t="s">
         <v>242</v>
       </c>
       <c r="D239" s="18" t="s">
@@ -9912,7 +9906,7 @@
       <c r="B240" s="13">
         <v>40126</v>
       </c>
-      <c r="C240" s="23" t="s">
+      <c r="C240" s="19" t="s">
         <v>242</v>
       </c>
       <c r="D240" s="19" t="s">
@@ -9947,7 +9941,7 @@
       <c r="B241" s="12">
         <v>40359</v>
       </c>
-      <c r="C241" s="22" t="s">
+      <c r="C241" s="18" t="s">
         <v>242</v>
       </c>
       <c r="D241" s="18" t="s">
@@ -9971,7 +9965,7 @@
       <c r="J241" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="K241" s="20">
+      <c r="K241" s="14">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -9982,7 +9976,7 @@
       <c r="B242" s="13">
         <v>40899</v>
       </c>
-      <c r="C242" s="23" t="s">
+      <c r="C242" s="19" t="s">
         <v>242</v>
       </c>
       <c r="D242" s="19" t="s">
@@ -10017,7 +10011,7 @@
       <c r="B243" s="12">
         <v>40940</v>
       </c>
-      <c r="C243" s="22" t="s">
+      <c r="C243" s="18" t="s">
         <v>242</v>
       </c>
       <c r="D243" s="18" t="s">
@@ -10052,7 +10046,7 @@
       <c r="B244" s="13">
         <v>41183</v>
       </c>
-      <c r="C244" s="23" t="s">
+      <c r="C244" s="19" t="s">
         <v>242</v>
       </c>
       <c r="D244" s="19" t="s">
@@ -10087,7 +10081,7 @@
       <c r="B245" s="12">
         <v>40372</v>
       </c>
-      <c r="C245" s="22" t="s">
+      <c r="C245" s="18" t="s">
         <v>248</v>
       </c>
       <c r="D245" s="18" t="s">
@@ -10122,7 +10116,7 @@
       <c r="B246" s="13">
         <v>40466</v>
       </c>
-      <c r="C246" s="23" t="s">
+      <c r="C246" s="19" t="s">
         <v>248</v>
       </c>
       <c r="D246" s="19" t="s">
@@ -10157,7 +10151,7 @@
       <c r="B247" s="12">
         <v>40560</v>
       </c>
-      <c r="C247" s="22" t="s">
+      <c r="C247" s="18" t="s">
         <v>248</v>
       </c>
       <c r="D247" s="18" t="s">
@@ -10192,7 +10186,7 @@
       <c r="B248" s="13">
         <v>40793</v>
       </c>
-      <c r="C248" s="23" t="s">
+      <c r="C248" s="19" t="s">
         <v>248</v>
       </c>
       <c r="D248" s="19" t="s">
@@ -10216,7 +10210,7 @@
       <c r="J248" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="K248" s="20">
+      <c r="K248" s="15">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -10227,7 +10221,7 @@
       <c r="B249" s="12">
         <v>41333</v>
       </c>
-      <c r="C249" s="22" t="s">
+      <c r="C249" s="18" t="s">
         <v>248</v>
       </c>
       <c r="D249" s="18" t="s">
@@ -10262,7 +10256,7 @@
       <c r="B250" s="13">
         <v>41374</v>
       </c>
-      <c r="C250" s="23" t="s">
+      <c r="C250" s="19" t="s">
         <v>248</v>
       </c>
       <c r="D250" s="19" t="s">
@@ -10297,7 +10291,7 @@
       <c r="B251" s="12">
         <v>41617</v>
       </c>
-      <c r="C251" s="22" t="s">
+      <c r="C251" s="18" t="s">
         <v>248</v>
       </c>
       <c r="D251" s="18" t="s">
@@ -10332,7 +10326,7 @@
       <c r="B252" s="13">
         <v>39938</v>
       </c>
-      <c r="C252" s="23" t="s">
+      <c r="C252" s="19" t="s">
         <v>253</v>
       </c>
       <c r="D252" s="19" t="s">
@@ -10367,7 +10361,7 @@
       <c r="B253" s="12">
         <v>39979</v>
       </c>
-      <c r="C253" s="22" t="s">
+      <c r="C253" s="18" t="s">
         <v>253</v>
       </c>
       <c r="D253" s="18" t="s">
@@ -10402,7 +10396,7 @@
       <c r="B254" s="13">
         <v>40222</v>
       </c>
-      <c r="C254" s="23" t="s">
+      <c r="C254" s="19" t="s">
         <v>253</v>
       </c>
       <c r="D254" s="19" t="s">
@@ -10437,7 +10431,7 @@
       <c r="B255" s="12">
         <v>40806</v>
       </c>
-      <c r="C255" s="22" t="s">
+      <c r="C255" s="18" t="s">
         <v>253</v>
       </c>
       <c r="D255" s="18" t="s">
@@ -10472,7 +10466,7 @@
       <c r="B256" s="13">
         <v>40900</v>
       </c>
-      <c r="C256" s="23" t="s">
+      <c r="C256" s="19" t="s">
         <v>253</v>
       </c>
       <c r="D256" s="19" t="s">
@@ -10507,7 +10501,7 @@
       <c r="B257" s="12">
         <v>40994</v>
       </c>
-      <c r="C257" s="22" t="s">
+      <c r="C257" s="18" t="s">
         <v>253</v>
       </c>
       <c r="D257" s="18" t="s">
@@ -10542,7 +10536,7 @@
       <c r="B258" s="13">
         <v>41227</v>
       </c>
-      <c r="C258" s="23" t="s">
+      <c r="C258" s="19" t="s">
         <v>253</v>
       </c>
       <c r="D258" s="19" t="s">
@@ -10566,7 +10560,7 @@
       <c r="J258" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="K258" s="20">
+      <c r="K258" s="15">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -10577,7 +10571,7 @@
       <c r="B259" s="12">
         <v>39832</v>
       </c>
-      <c r="C259" s="22" t="s">
+      <c r="C259" s="18" t="s">
         <v>259</v>
       </c>
       <c r="D259" s="18" t="s">
@@ -10601,7 +10595,7 @@
       <c r="J259" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="K259" s="20">
+      <c r="K259" s="14">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -10612,7 +10606,7 @@
       <c r="B260" s="13">
         <v>40372</v>
       </c>
-      <c r="C260" s="23" t="s">
+      <c r="C260" s="19" t="s">
         <v>259</v>
       </c>
       <c r="D260" s="19" t="s">
@@ -10647,7 +10641,7 @@
       <c r="B261" s="12">
         <v>40413</v>
       </c>
-      <c r="C261" s="22" t="s">
+      <c r="C261" s="18" t="s">
         <v>259</v>
       </c>
       <c r="D261" s="18" t="s">
@@ -10682,7 +10676,7 @@
       <c r="B262" s="13">
         <v>40656</v>
       </c>
-      <c r="C262" s="23" t="s">
+      <c r="C262" s="19" t="s">
         <v>259</v>
       </c>
       <c r="D262" s="19" t="s">
@@ -10717,7 +10711,7 @@
       <c r="B263" s="12">
         <v>41240</v>
       </c>
-      <c r="C263" s="22" t="s">
+      <c r="C263" s="18" t="s">
         <v>259</v>
       </c>
       <c r="D263" s="18" t="s">
@@ -10752,7 +10746,7 @@
       <c r="B264" s="13">
         <v>41334</v>
       </c>
-      <c r="C264" s="23" t="s">
+      <c r="C264" s="19" t="s">
         <v>259</v>
       </c>
       <c r="D264" s="19" t="s">
@@ -10787,7 +10781,7 @@
       <c r="B265" s="12">
         <v>41428</v>
       </c>
-      <c r="C265" s="22" t="s">
+      <c r="C265" s="18" t="s">
         <v>259</v>
       </c>
       <c r="D265" s="18" t="s">
@@ -10822,7 +10816,7 @@
       <c r="B266" s="13">
         <v>39845</v>
       </c>
-      <c r="C266" s="23" t="s">
+      <c r="C266" s="19" t="s">
         <v>265</v>
       </c>
       <c r="D266" s="19" t="s">
@@ -10857,7 +10851,7 @@
       <c r="B267" s="12">
         <v>39939</v>
       </c>
-      <c r="C267" s="22" t="s">
+      <c r="C267" s="18" t="s">
         <v>265</v>
       </c>
       <c r="D267" s="18" t="s">
@@ -10892,7 +10886,7 @@
       <c r="B268" s="13">
         <v>40033</v>
       </c>
-      <c r="C268" s="23" t="s">
+      <c r="C268" s="19" t="s">
         <v>265</v>
       </c>
       <c r="D268" s="19" t="s">
@@ -10927,7 +10921,7 @@
       <c r="B269" s="12">
         <v>40266</v>
       </c>
-      <c r="C269" s="22" t="s">
+      <c r="C269" s="18" t="s">
         <v>265</v>
       </c>
       <c r="D269" s="18" t="s">
@@ -10951,7 +10945,7 @@
       <c r="J269" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="K269" s="20">
+      <c r="K269" s="14">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -10962,7 +10956,7 @@
       <c r="B270" s="13">
         <v>40806</v>
       </c>
-      <c r="C270" s="23" t="s">
+      <c r="C270" s="19" t="s">
         <v>265</v>
       </c>
       <c r="D270" s="19" t="s">
@@ -10997,7 +10991,7 @@
       <c r="B271" s="12">
         <v>40847</v>
       </c>
-      <c r="C271" s="22" t="s">
+      <c r="C271" s="18" t="s">
         <v>265</v>
       </c>
       <c r="D271" s="18" t="s">
@@ -11032,7 +11026,7 @@
       <c r="B272" s="13">
         <v>41090</v>
       </c>
-      <c r="C272" s="23" t="s">
+      <c r="C272" s="19" t="s">
         <v>265</v>
       </c>
       <c r="D272" s="19" t="s">
@@ -11067,7 +11061,7 @@
       <c r="B273" s="12">
         <v>40279</v>
       </c>
-      <c r="C273" s="22" t="s">
+      <c r="C273" s="18" t="s">
         <v>270</v>
       </c>
       <c r="D273" s="18" t="s">
@@ -11102,7 +11096,7 @@
       <c r="B274" s="13">
         <v>40373</v>
       </c>
-      <c r="C274" s="23" t="s">
+      <c r="C274" s="19" t="s">
         <v>270</v>
       </c>
       <c r="D274" s="19" t="s">
@@ -11137,7 +11131,7 @@
       <c r="B275" s="12">
         <v>40467</v>
       </c>
-      <c r="C275" s="22" t="s">
+      <c r="C275" s="18" t="s">
         <v>270</v>
       </c>
       <c r="D275" s="18" t="s">
@@ -11172,7 +11166,7 @@
       <c r="B276" s="13">
         <v>40700</v>
       </c>
-      <c r="C276" s="23" t="s">
+      <c r="C276" s="19" t="s">
         <v>270</v>
       </c>
       <c r="D276" s="19" t="s">
@@ -11207,7 +11201,7 @@
       <c r="B277" s="12">
         <v>41240</v>
       </c>
-      <c r="C277" s="22" t="s">
+      <c r="C277" s="18" t="s">
         <v>270</v>
       </c>
       <c r="D277" s="18" t="s">
@@ -11242,7 +11236,7 @@
       <c r="B278" s="13">
         <v>41281</v>
       </c>
-      <c r="C278" s="23" t="s">
+      <c r="C278" s="19" t="s">
         <v>270</v>
       </c>
       <c r="D278" s="19" t="s">
@@ -11277,7 +11271,7 @@
       <c r="B279" s="12">
         <v>41524</v>
       </c>
-      <c r="C279" s="22" t="s">
+      <c r="C279" s="18" t="s">
         <v>270</v>
       </c>
       <c r="D279" s="18" t="s">
@@ -11312,7 +11306,7 @@
       <c r="B280" s="13">
         <v>39845</v>
       </c>
-      <c r="C280" s="23" t="s">
+      <c r="C280" s="19" t="s">
         <v>277</v>
       </c>
       <c r="D280" s="19" t="s">
@@ -11347,7 +11341,7 @@
       <c r="B281" s="12">
         <v>39886</v>
       </c>
-      <c r="C281" s="22" t="s">
+      <c r="C281" s="18" t="s">
         <v>277</v>
       </c>
       <c r="D281" s="18" t="s">
@@ -11382,7 +11376,7 @@
       <c r="B282" s="13">
         <v>40129</v>
       </c>
-      <c r="C282" s="23" t="s">
+      <c r="C282" s="19" t="s">
         <v>277</v>
       </c>
       <c r="D282" s="19" t="s">
@@ -11417,7 +11411,7 @@
       <c r="B283" s="12">
         <v>40713</v>
       </c>
-      <c r="C283" s="22" t="s">
+      <c r="C283" s="18" t="s">
         <v>277</v>
       </c>
       <c r="D283" s="18" t="s">
@@ -11452,7 +11446,7 @@
       <c r="B284" s="13">
         <v>40807</v>
       </c>
-      <c r="C284" s="23" t="s">
+      <c r="C284" s="19" t="s">
         <v>277</v>
       </c>
       <c r="D284" s="19" t="s">
@@ -11487,7 +11481,7 @@
       <c r="B285" s="12">
         <v>40901</v>
       </c>
-      <c r="C285" s="22" t="s">
+      <c r="C285" s="18" t="s">
         <v>277</v>
       </c>
       <c r="D285" s="18" t="s">
@@ -11522,7 +11516,7 @@
       <c r="B286" s="13">
         <v>41134</v>
       </c>
-      <c r="C286" s="23" t="s">
+      <c r="C286" s="19" t="s">
         <v>277</v>
       </c>
       <c r="D286" s="19" t="s">
@@ -11546,7 +11540,7 @@
       <c r="J286" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="K286" s="20">
+      <c r="K286" s="15">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -11557,7 +11551,7 @@
       <c r="B287" s="12">
         <v>40279</v>
       </c>
-      <c r="C287" s="22" t="s">
+      <c r="C287" s="18" t="s">
         <v>282</v>
       </c>
       <c r="D287" s="18" t="s">
@@ -11592,7 +11586,7 @@
       <c r="B288" s="13">
         <v>40320</v>
       </c>
-      <c r="C288" s="23" t="s">
+      <c r="C288" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D288" s="19" t="s">
@@ -11627,7 +11621,7 @@
       <c r="B289" s="12">
         <v>40563</v>
       </c>
-      <c r="C289" s="22" t="s">
+      <c r="C289" s="18" t="s">
         <v>282</v>
       </c>
       <c r="D289" s="18" t="s">
@@ -11662,7 +11656,7 @@
       <c r="B290" s="13">
         <v>41147</v>
       </c>
-      <c r="C290" s="23" t="s">
+      <c r="C290" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D290" s="19" t="s">
@@ -11697,7 +11691,7 @@
       <c r="B291" s="12">
         <v>41241</v>
       </c>
-      <c r="C291" s="22" t="s">
+      <c r="C291" s="18" t="s">
         <v>282</v>
       </c>
       <c r="D291" s="18" t="s">
@@ -11732,7 +11726,7 @@
       <c r="B292" s="13">
         <v>41335</v>
       </c>
-      <c r="C292" s="23" t="s">
+      <c r="C292" s="19" t="s">
         <v>282</v>
       </c>
       <c r="D292" s="19" t="s">
@@ -11767,7 +11761,7 @@
       <c r="B293" s="12">
         <v>41568</v>
       </c>
-      <c r="C293" s="22" t="s">
+      <c r="C293" s="18" t="s">
         <v>282</v>
       </c>
       <c r="D293" s="18" t="s">
@@ -11791,7 +11785,7 @@
       <c r="J293" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="K293" s="20">
+      <c r="K293" s="14">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -11802,7 +11796,7 @@
       <c r="B294" s="13">
         <v>39846</v>
       </c>
-      <c r="C294" s="23" t="s">
+      <c r="C294" s="19" t="s">
         <v>288</v>
       </c>
       <c r="D294" s="19" t="s">
@@ -11837,7 +11831,7 @@
       <c r="B295" s="12">
         <v>39940</v>
       </c>
-      <c r="C295" s="22" t="s">
+      <c r="C295" s="18" t="s">
         <v>288</v>
       </c>
       <c r="D295" s="18" t="s">
@@ -11872,7 +11866,7 @@
       <c r="B296" s="13">
         <v>40173</v>
       </c>
-      <c r="C296" s="23" t="s">
+      <c r="C296" s="19" t="s">
         <v>288</v>
       </c>
       <c r="D296" s="19" t="s">
@@ -11896,7 +11890,7 @@
       <c r="J296" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="K296" s="20">
+      <c r="K296" s="15">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -11907,7 +11901,7 @@
       <c r="B297" s="12">
         <v>40713</v>
       </c>
-      <c r="C297" s="22" t="s">
+      <c r="C297" s="18" t="s">
         <v>288</v>
       </c>
       <c r="D297" s="18" t="s">
@@ -11942,7 +11936,7 @@
       <c r="B298" s="13">
         <v>40754</v>
       </c>
-      <c r="C298" s="23" t="s">
+      <c r="C298" s="19" t="s">
         <v>288</v>
       </c>
       <c r="D298" s="19" t="s">
@@ -11977,7 +11971,7 @@
       <c r="B299" s="12">
         <v>40997</v>
       </c>
-      <c r="C299" s="22" t="s">
+      <c r="C299" s="18" t="s">
         <v>288</v>
       </c>
       <c r="D299" s="18" t="s">
@@ -12012,7 +12006,7 @@
       <c r="B300" s="13">
         <v>41581</v>
       </c>
-      <c r="C300" s="23" t="s">
+      <c r="C300" s="19" t="s">
         <v>288</v>
       </c>
       <c r="D300" s="19" t="s">
@@ -12047,7 +12041,7 @@
       <c r="B301" s="12">
         <v>40186</v>
       </c>
-      <c r="C301" s="22" t="s">
+      <c r="C301" s="18" t="s">
         <v>294</v>
       </c>
       <c r="D301" s="18" t="s">
@@ -12082,7 +12076,7 @@
       <c r="B302" s="13">
         <v>40280</v>
       </c>
-      <c r="C302" s="23" t="s">
+      <c r="C302" s="19" t="s">
         <v>294</v>
       </c>
       <c r="D302" s="19" t="s">
@@ -12117,7 +12111,7 @@
       <c r="B303" s="12">
         <v>40374</v>
       </c>
-      <c r="C303" s="22" t="s">
+      <c r="C303" s="18" t="s">
         <v>294</v>
       </c>
       <c r="D303" s="18" t="s">
@@ -12152,7 +12146,7 @@
       <c r="B304" s="13">
         <v>40607</v>
       </c>
-      <c r="C304" s="23" t="s">
+      <c r="C304" s="19" t="s">
         <v>294</v>
       </c>
       <c r="D304" s="19" t="s">
@@ -12176,7 +12170,7 @@
       <c r="J304" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="K304" s="20">
+      <c r="K304" s="15">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -12187,7 +12181,7 @@
       <c r="B305" s="12">
         <v>41147</v>
       </c>
-      <c r="C305" s="22" t="s">
+      <c r="C305" s="18" t="s">
         <v>294</v>
       </c>
       <c r="D305" s="18" t="s">
@@ -12222,7 +12216,7 @@
       <c r="B306" s="13">
         <v>41188</v>
       </c>
-      <c r="C306" s="23" t="s">
+      <c r="C306" s="19" t="s">
         <v>294</v>
       </c>
       <c r="D306" s="19" t="s">
@@ -12257,7 +12251,7 @@
       <c r="B307" s="12">
         <v>41431</v>
       </c>
-      <c r="C307" s="22" t="s">
+      <c r="C307" s="18" t="s">
         <v>294</v>
       </c>
       <c r="D307" s="18" t="s">
@@ -12292,7 +12286,7 @@
       <c r="B308" s="13">
         <v>40036</v>
       </c>
-      <c r="C308" s="23" t="s">
+      <c r="C308" s="19" t="s">
         <v>300</v>
       </c>
       <c r="D308" s="19" t="s">
@@ -12327,7 +12321,7 @@
       <c r="B309" s="12">
         <v>40620</v>
       </c>
-      <c r="C309" s="22" t="s">
+      <c r="C309" s="18" t="s">
         <v>300</v>
       </c>
       <c r="D309" s="18" t="s">
@@ -12362,7 +12356,7 @@
       <c r="B310" s="13">
         <v>40714</v>
       </c>
-      <c r="C310" s="23" t="s">
+      <c r="C310" s="19" t="s">
         <v>300</v>
       </c>
       <c r="D310" s="19" t="s">
@@ -12397,7 +12391,7 @@
       <c r="B311" s="12">
         <v>40808</v>
       </c>
-      <c r="C311" s="22" t="s">
+      <c r="C311" s="18" t="s">
         <v>300</v>
       </c>
       <c r="D311" s="18" t="s">
@@ -12432,7 +12426,7 @@
       <c r="B312" s="13">
         <v>41041</v>
       </c>
-      <c r="C312" s="23" t="s">
+      <c r="C312" s="19" t="s">
         <v>300</v>
       </c>
       <c r="D312" s="19" t="s">
@@ -12456,7 +12450,7 @@
       <c r="J312" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="K312" s="20">
+      <c r="K312" s="15">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -12467,7 +12461,7 @@
       <c r="B313" s="12">
         <v>41581</v>
       </c>
-      <c r="C313" s="22" t="s">
+      <c r="C313" s="18" t="s">
         <v>300</v>
       </c>
       <c r="D313" s="18" t="s">
@@ -12502,7 +12496,7 @@
       <c r="B314" s="13">
         <v>41622</v>
       </c>
-      <c r="C314" s="23" t="s">
+      <c r="C314" s="19" t="s">
         <v>300</v>
       </c>
       <c r="D314" s="19" t="s">
@@ -12537,7 +12531,7 @@
       <c r="B315" s="12">
         <v>40186</v>
       </c>
-      <c r="C315" s="22" t="s">
+      <c r="C315" s="18" t="s">
         <v>307</v>
       </c>
       <c r="D315" s="18" t="s">
@@ -12572,7 +12566,7 @@
       <c r="B316" s="13">
         <v>40227</v>
       </c>
-      <c r="C316" s="23" t="s">
+      <c r="C316" s="19" t="s">
         <v>307</v>
       </c>
       <c r="D316" s="19" t="s">
@@ -12607,7 +12601,7 @@
       <c r="B317" s="12">
         <v>40470</v>
       </c>
-      <c r="C317" s="22" t="s">
+      <c r="C317" s="18" t="s">
         <v>307</v>
       </c>
       <c r="D317" s="18" t="s">
@@ -12642,7 +12636,7 @@
       <c r="B318" s="13">
         <v>41054</v>
       </c>
-      <c r="C318" s="23" t="s">
+      <c r="C318" s="19" t="s">
         <v>307</v>
       </c>
       <c r="D318" s="19" t="s">
@@ -12677,7 +12671,7 @@
       <c r="B319" s="12">
         <v>41148</v>
       </c>
-      <c r="C319" s="22" t="s">
+      <c r="C319" s="18" t="s">
         <v>307</v>
       </c>
       <c r="D319" s="18" t="s">
@@ -12712,7 +12706,7 @@
       <c r="B320" s="13">
         <v>41242</v>
       </c>
-      <c r="C320" s="23" t="s">
+      <c r="C320" s="19" t="s">
         <v>307</v>
       </c>
       <c r="D320" s="19" t="s">
@@ -12747,7 +12741,7 @@
       <c r="B321" s="12">
         <v>41475</v>
       </c>
-      <c r="C321" s="22" t="s">
+      <c r="C321" s="18" t="s">
         <v>307</v>
       </c>
       <c r="D321" s="18" t="s">
@@ -12771,7 +12765,7 @@
       <c r="J321" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="K321" s="20">
+      <c r="K321" s="14">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -12782,7 +12776,7 @@
       <c r="B322" s="13">
         <v>39847</v>
       </c>
-      <c r="C322" s="23" t="s">
+      <c r="C322" s="19" t="s">
         <v>313</v>
       </c>
       <c r="D322" s="19" t="s">
@@ -12817,7 +12811,7 @@
       <c r="B323" s="12">
         <v>40080</v>
       </c>
-      <c r="C323" s="22" t="s">
+      <c r="C323" s="18" t="s">
         <v>313</v>
       </c>
       <c r="D323" s="18" t="s">
@@ -12841,7 +12835,7 @@
       <c r="J323" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="K323" s="20">
+      <c r="K323" s="14">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -12852,7 +12846,7 @@
       <c r="B324" s="13">
         <v>40620</v>
       </c>
-      <c r="C324" s="23" t="s">
+      <c r="C324" s="19" t="s">
         <v>313</v>
       </c>
       <c r="D324" s="19" t="s">
@@ -12887,7 +12881,7 @@
       <c r="B325" s="12">
         <v>40661</v>
       </c>
-      <c r="C325" s="22" t="s">
+      <c r="C325" s="18" t="s">
         <v>313</v>
       </c>
       <c r="D325" s="18" t="s">
@@ -12922,7 +12916,7 @@
       <c r="B326" s="13">
         <v>40904</v>
       </c>
-      <c r="C326" s="23" t="s">
+      <c r="C326" s="19" t="s">
         <v>313</v>
       </c>
       <c r="D326" s="19" t="s">
@@ -12957,7 +12951,7 @@
       <c r="B327" s="12">
         <v>41488</v>
       </c>
-      <c r="C327" s="22" t="s">
+      <c r="C327" s="18" t="s">
         <v>313</v>
       </c>
       <c r="D327" s="18" t="s">
@@ -12992,7 +12986,7 @@
       <c r="B328" s="13">
         <v>41582</v>
       </c>
-      <c r="C328" s="23" t="s">
+      <c r="C328" s="19" t="s">
         <v>313</v>
       </c>
       <c r="D328" s="19" t="s">
@@ -13027,7 +13021,7 @@
       <c r="B329" s="12">
         <v>40093</v>
       </c>
-      <c r="C329" s="22" t="s">
+      <c r="C329" s="18" t="s">
         <v>319</v>
       </c>
       <c r="D329" s="18" t="s">
@@ -13062,7 +13056,7 @@
       <c r="B330" s="13">
         <v>40187</v>
       </c>
-      <c r="C330" s="23" t="s">
+      <c r="C330" s="19" t="s">
         <v>319</v>
       </c>
       <c r="D330" s="19" t="s">
@@ -13097,7 +13091,7 @@
       <c r="B331" s="12">
         <v>40281</v>
       </c>
-      <c r="C331" s="22" t="s">
+      <c r="C331" s="18" t="s">
         <v>319</v>
       </c>
       <c r="D331" s="18" t="s">
@@ -13132,7 +13126,7 @@
       <c r="B332" s="13">
         <v>40514</v>
       </c>
-      <c r="C332" s="23" t="s">
+      <c r="C332" s="19" t="s">
         <v>319</v>
       </c>
       <c r="D332" s="19" t="s">
@@ -13156,7 +13150,7 @@
       <c r="J332" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="K332" s="20">
+      <c r="K332" s="15">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -13167,7 +13161,7 @@
       <c r="B333" s="12">
         <v>41054</v>
       </c>
-      <c r="C333" s="22" t="s">
+      <c r="C333" s="18" t="s">
         <v>319</v>
       </c>
       <c r="D333" s="18" t="s">
@@ -13202,7 +13196,7 @@
       <c r="B334" s="13">
         <v>41095</v>
       </c>
-      <c r="C334" s="23" t="s">
+      <c r="C334" s="19" t="s">
         <v>319</v>
       </c>
       <c r="D334" s="19" t="s">
@@ -13237,7 +13231,7 @@
       <c r="B335" s="12">
         <v>41338</v>
       </c>
-      <c r="C335" s="22" t="s">
+      <c r="C335" s="18" t="s">
         <v>319</v>
       </c>
       <c r="D335" s="18" t="s">
@@ -13272,7 +13266,7 @@
       <c r="B336" s="13">
         <v>39943</v>
       </c>
-      <c r="C336" s="23" t="s">
+      <c r="C336" s="19" t="s">
         <v>327</v>
       </c>
       <c r="D336" s="19" t="s">
@@ -13307,7 +13301,7 @@
       <c r="B337" s="12">
         <v>40527</v>
       </c>
-      <c r="C337" s="22" t="s">
+      <c r="C337" s="18" t="s">
         <v>327</v>
       </c>
       <c r="D337" s="18" t="s">
@@ -13342,7 +13336,7 @@
       <c r="B338" s="13">
         <v>40621</v>
       </c>
-      <c r="C338" s="23" t="s">
+      <c r="C338" s="19" t="s">
         <v>327</v>
       </c>
       <c r="D338" s="19" t="s">
@@ -13377,7 +13371,7 @@
       <c r="B339" s="12">
         <v>40715</v>
       </c>
-      <c r="C339" s="22" t="s">
+      <c r="C339" s="18" t="s">
         <v>327</v>
       </c>
       <c r="D339" s="18" t="s">
@@ -13412,7 +13406,7 @@
       <c r="B340" s="13">
         <v>40948</v>
       </c>
-      <c r="C340" s="23" t="s">
+      <c r="C340" s="19" t="s">
         <v>327</v>
       </c>
       <c r="D340" s="19" t="s">
@@ -13436,7 +13430,7 @@
       <c r="J340" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="K340" s="20">
+      <c r="K340" s="15">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -13447,7 +13441,7 @@
       <c r="B341" s="12">
         <v>41488</v>
       </c>
-      <c r="C341" s="22" t="s">
+      <c r="C341" s="18" t="s">
         <v>327</v>
       </c>
       <c r="D341" s="18" t="s">
@@ -13482,7 +13476,7 @@
       <c r="B342" s="13">
         <v>41529</v>
       </c>
-      <c r="C342" s="23" t="s">
+      <c r="C342" s="19" t="s">
         <v>327</v>
       </c>
       <c r="D342" s="19" t="s">
@@ -13517,7 +13511,7 @@
       <c r="B343" s="12">
         <v>40093</v>
       </c>
-      <c r="C343" s="22" t="s">
+      <c r="C343" s="18" t="s">
         <v>335</v>
       </c>
       <c r="D343" s="18" t="s">
@@ -13552,7 +13546,7 @@
       <c r="B344" s="13">
         <v>40134</v>
       </c>
-      <c r="C344" s="23" t="s">
+      <c r="C344" s="19" t="s">
         <v>335</v>
       </c>
       <c r="D344" s="19" t="s">
@@ -13587,7 +13581,7 @@
       <c r="B345" s="12">
         <v>40377</v>
       </c>
-      <c r="C345" s="22" t="s">
+      <c r="C345" s="18" t="s">
         <v>335</v>
       </c>
       <c r="D345" s="18" t="s">
@@ -13622,7 +13616,7 @@
       <c r="B346" s="13">
         <v>40961</v>
       </c>
-      <c r="C346" s="23" t="s">
+      <c r="C346" s="19" t="s">
         <v>335</v>
       </c>
       <c r="D346" s="19" t="s">
@@ -13657,7 +13651,7 @@
       <c r="B347" s="12">
         <v>41055</v>
       </c>
-      <c r="C347" s="22" t="s">
+      <c r="C347" s="18" t="s">
         <v>335</v>
       </c>
       <c r="D347" s="18" t="s">
@@ -13692,7 +13686,7 @@
       <c r="B348" s="13">
         <v>41149</v>
       </c>
-      <c r="C348" s="23" t="s">
+      <c r="C348" s="19" t="s">
         <v>335</v>
       </c>
       <c r="D348" s="19" t="s">
@@ -13727,7 +13721,7 @@
       <c r="B349" s="12">
         <v>41382</v>
       </c>
-      <c r="C349" s="22" t="s">
+      <c r="C349" s="18" t="s">
         <v>335</v>
       </c>
       <c r="D349" s="18" t="s">
@@ -13751,7 +13745,7 @@
       <c r="J349" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="K349" s="20">
+      <c r="K349" s="14">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -13762,7 +13756,7 @@
       <c r="B350" s="13">
         <v>39987</v>
       </c>
-      <c r="C350" s="23" t="s">
+      <c r="C350" s="19" t="s">
         <v>342</v>
       </c>
       <c r="D350" s="19" t="s">
@@ -13786,7 +13780,7 @@
       <c r="J350" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="K350" s="20">
+      <c r="K350" s="15">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -13797,7 +13791,7 @@
       <c r="B351" s="12">
         <v>40527</v>
       </c>
-      <c r="C351" s="22" t="s">
+      <c r="C351" s="18" t="s">
         <v>342</v>
       </c>
       <c r="D351" s="18" t="s">
@@ -13832,7 +13826,7 @@
       <c r="B352" s="13">
         <v>40568</v>
       </c>
-      <c r="C352" s="23" t="s">
+      <c r="C352" s="19" t="s">
         <v>342</v>
       </c>
       <c r="D352" s="19" t="s">
@@ -13867,7 +13861,7 @@
       <c r="B353" s="12">
         <v>40811</v>
       </c>
-      <c r="C353" s="22" t="s">
+      <c r="C353" s="18" t="s">
         <v>342</v>
       </c>
       <c r="D353" s="18" t="s">
@@ -13902,7 +13896,7 @@
       <c r="B354" s="13">
         <v>41395</v>
       </c>
-      <c r="C354" s="23" t="s">
+      <c r="C354" s="19" t="s">
         <v>342</v>
       </c>
       <c r="D354" s="19" t="s">
@@ -13937,7 +13931,7 @@
       <c r="B355" s="12">
         <v>41489</v>
       </c>
-      <c r="C355" s="22" t="s">
+      <c r="C355" s="18" t="s">
         <v>342</v>
       </c>
       <c r="D355" s="18" t="s">
@@ -13972,7 +13966,7 @@
       <c r="B356" s="13">
         <v>41583</v>
       </c>
-      <c r="C356" s="23" t="s">
+      <c r="C356" s="19" t="s">
         <v>342</v>
       </c>
       <c r="D356" s="19" t="s">
@@ -14007,7 +14001,7 @@
       <c r="B357" s="12">
         <v>40000</v>
       </c>
-      <c r="C357" s="22" t="s">
+      <c r="C357" s="18" t="s">
         <v>349</v>
       </c>
       <c r="D357" s="18" t="s">
@@ -14042,7 +14036,7 @@
       <c r="B358" s="13">
         <v>40094</v>
       </c>
-      <c r="C358" s="23" t="s">
+      <c r="C358" s="19" t="s">
         <v>349</v>
       </c>
       <c r="D358" s="19" t="s">
@@ -14077,7 +14071,7 @@
       <c r="B359" s="12">
         <v>40188</v>
       </c>
-      <c r="C359" s="22" t="s">
+      <c r="C359" s="18" t="s">
         <v>349</v>
       </c>
       <c r="D359" s="18" t="s">
@@ -14112,7 +14106,7 @@
       <c r="B360" s="13">
         <v>40421</v>
       </c>
-      <c r="C360" s="23" t="s">
+      <c r="C360" s="19" t="s">
         <v>349</v>
       </c>
       <c r="D360" s="19" t="s">
@@ -14136,7 +14130,7 @@
       <c r="J360" s="19" t="s">
         <v>355</v>
       </c>
-      <c r="K360" s="20">
+      <c r="K360" s="15">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -14147,7 +14141,7 @@
       <c r="B361" s="12">
         <v>40961</v>
       </c>
-      <c r="C361" s="22" t="s">
+      <c r="C361" s="18" t="s">
         <v>349</v>
       </c>
       <c r="D361" s="18" t="s">
@@ -14182,7 +14176,7 @@
       <c r="B362" s="13">
         <v>41002</v>
       </c>
-      <c r="C362" s="23" t="s">
+      <c r="C362" s="19" t="s">
         <v>349</v>
       </c>
       <c r="D362" s="19" t="s">
@@ -14217,7 +14211,7 @@
       <c r="B363" s="12">
         <v>41245</v>
       </c>
-      <c r="C363" s="22" t="s">
+      <c r="C363" s="18" t="s">
         <v>349</v>
       </c>
       <c r="D363" s="18" t="s">
@@ -14252,7 +14246,7 @@
       <c r="B364" s="13">
         <v>39850</v>
       </c>
-      <c r="C364" s="23" t="s">
+      <c r="C364" s="19" t="s">
         <v>356</v>
       </c>
       <c r="D364" s="19" t="s">
@@ -14287,7 +14281,7 @@
       <c r="B365" s="12">
         <v>40434</v>
       </c>
-      <c r="C365" s="22" t="s">
+      <c r="C365" s="18" t="s">
         <v>356</v>
       </c>
       <c r="D365" s="18" t="s">
@@ -14322,7 +14316,7 @@
       <c r="B366" s="13">
         <v>40528</v>
       </c>
-      <c r="C366" s="23" t="s">
+      <c r="C366" s="19" t="s">
         <v>356</v>
       </c>
       <c r="D366" s="19" t="s">
@@ -14357,7 +14351,7 @@
       <c r="B367" s="12">
         <v>40622</v>
       </c>
-      <c r="C367" s="22" t="s">
+      <c r="C367" s="18" t="s">
         <v>356</v>
       </c>
       <c r="D367" s="18" t="s">
@@ -14392,7 +14386,7 @@
       <c r="B368" s="13">
         <v>40855</v>
       </c>
-      <c r="C368" s="23" t="s">
+      <c r="C368" s="19" t="s">
         <v>356</v>
       </c>
       <c r="D368" s="19" t="s">
@@ -14416,7 +14410,7 @@
       <c r="J368" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="K368" s="20">
+      <c r="K368" s="15">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -14427,7 +14421,7 @@
       <c r="B369" s="12">
         <v>41395</v>
       </c>
-      <c r="C369" s="22" t="s">
+      <c r="C369" s="18" t="s">
         <v>356</v>
       </c>
       <c r="D369" s="18" t="s">
@@ -14462,7 +14456,7 @@
       <c r="B370" s="13">
         <v>41436</v>
       </c>
-      <c r="C370" s="23" t="s">
+      <c r="C370" s="19" t="s">
         <v>356</v>
       </c>
       <c r="D370" s="19" t="s">
@@ -14497,7 +14491,7 @@
       <c r="B371" s="12">
         <v>40000</v>
       </c>
-      <c r="C371" s="22" t="s">
+      <c r="C371" s="18" t="s">
         <v>363</v>
       </c>
       <c r="D371" s="18" t="s">
@@ -14532,7 +14526,7 @@
       <c r="B372" s="13">
         <v>40041</v>
       </c>
-      <c r="C372" s="23" t="s">
+      <c r="C372" s="19" t="s">
         <v>363</v>
       </c>
       <c r="D372" s="19" t="s">
@@ -14567,7 +14561,7 @@
       <c r="B373" s="12">
         <v>40284</v>
       </c>
-      <c r="C373" s="22" t="s">
+      <c r="C373" s="18" t="s">
         <v>363</v>
       </c>
       <c r="D373" s="18" t="s">
@@ -14602,7 +14596,7 @@
       <c r="B374" s="13">
         <v>40868</v>
       </c>
-      <c r="C374" s="23" t="s">
+      <c r="C374" s="19" t="s">
         <v>363</v>
       </c>
       <c r="D374" s="19" t="s">
@@ -14637,7 +14631,7 @@
       <c r="B375" s="12">
         <v>40962</v>
       </c>
-      <c r="C375" s="22" t="s">
+      <c r="C375" s="18" t="s">
         <v>363</v>
       </c>
       <c r="D375" s="18" t="s">
@@ -14672,7 +14666,7 @@
       <c r="B376" s="13">
         <v>41056</v>
       </c>
-      <c r="C376" s="23" t="s">
+      <c r="C376" s="19" t="s">
         <v>363</v>
       </c>
       <c r="D376" s="19" t="s">
@@ -14707,7 +14701,7 @@
       <c r="B377" s="12">
         <v>41289</v>
       </c>
-      <c r="C377" s="22" t="s">
+      <c r="C377" s="18" t="s">
         <v>363</v>
       </c>
       <c r="D377" s="18" t="s">
@@ -14731,7 +14725,7 @@
       <c r="J377" s="18" t="s">
         <v>367</v>
       </c>
-      <c r="K377" s="20">
+      <c r="K377" s="14">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -14742,7 +14736,7 @@
       <c r="B378" s="13">
         <v>39894</v>
       </c>
-      <c r="C378" s="23" t="s">
+      <c r="C378" s="19" t="s">
         <v>368</v>
       </c>
       <c r="D378" s="19" t="s">
@@ -14766,7 +14760,7 @@
       <c r="J378" s="19" t="s">
         <v>373</v>
       </c>
-      <c r="K378" s="20">
+      <c r="K378" s="15">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -14777,7 +14771,7 @@
       <c r="B379" s="12">
         <v>40434</v>
       </c>
-      <c r="C379" s="22" t="s">
+      <c r="C379" s="18" t="s">
         <v>368</v>
       </c>
       <c r="D379" s="18" t="s">
@@ -14812,7 +14806,7 @@
       <c r="B380" s="13">
         <v>40475</v>
       </c>
-      <c r="C380" s="23" t="s">
+      <c r="C380" s="19" t="s">
         <v>368</v>
       </c>
       <c r="D380" s="19" t="s">
@@ -14847,7 +14841,7 @@
       <c r="B381" s="12">
         <v>40718</v>
       </c>
-      <c r="C381" s="22" t="s">
+      <c r="C381" s="18" t="s">
         <v>368</v>
       </c>
       <c r="D381" s="18" t="s">
@@ -14882,7 +14876,7 @@
       <c r="B382" s="13">
         <v>41302</v>
       </c>
-      <c r="C382" s="23" t="s">
+      <c r="C382" s="19" t="s">
         <v>368</v>
       </c>
       <c r="D382" s="19" t="s">
@@ -14917,7 +14911,7 @@
       <c r="B383" s="12">
         <v>41396</v>
       </c>
-      <c r="C383" s="22" t="s">
+      <c r="C383" s="18" t="s">
         <v>368</v>
       </c>
       <c r="D383" s="18" t="s">
@@ -14952,7 +14946,7 @@
       <c r="B384" s="13">
         <v>41490</v>
       </c>
-      <c r="C384" s="23" t="s">
+      <c r="C384" s="19" t="s">
         <v>368</v>
       </c>
       <c r="D384" s="19" t="s">
@@ -14987,7 +14981,7 @@
       <c r="B385" s="12">
         <v>39907</v>
       </c>
-      <c r="C385" s="22" t="s">
+      <c r="C385" s="18" t="s">
         <v>374</v>
       </c>
       <c r="D385" s="18" t="s">
@@ -15022,7 +15016,7 @@
       <c r="B386" s="13">
         <v>40001</v>
       </c>
-      <c r="C386" s="23" t="s">
+      <c r="C386" s="19" t="s">
         <v>374</v>
       </c>
       <c r="D386" s="19" t="s">
@@ -15057,7 +15051,7 @@
       <c r="B387" s="12">
         <v>40095</v>
       </c>
-      <c r="C387" s="22" t="s">
+      <c r="C387" s="18" t="s">
         <v>374</v>
       </c>
       <c r="D387" s="18" t="s">
@@ -15092,7 +15086,7 @@
       <c r="B388" s="13">
         <v>40328</v>
       </c>
-      <c r="C388" s="23" t="s">
+      <c r="C388" s="19" t="s">
         <v>374</v>
       </c>
       <c r="D388" s="19" t="s">
@@ -15116,7 +15110,7 @@
       <c r="J388" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="K388" s="20">
+      <c r="K388" s="15">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -15127,7 +15121,7 @@
       <c r="B389" s="12">
         <v>40868</v>
       </c>
-      <c r="C389" s="22" t="s">
+      <c r="C389" s="18" t="s">
         <v>374</v>
       </c>
       <c r="D389" s="18" t="s">
@@ -15162,7 +15156,7 @@
       <c r="B390" s="13">
         <v>40909</v>
       </c>
-      <c r="C390" s="23" t="s">
+      <c r="C390" s="19" t="s">
         <v>374</v>
       </c>
       <c r="D390" s="19" t="s">
@@ -15197,7 +15191,7 @@
       <c r="B391" s="12">
         <v>41152</v>
       </c>
-      <c r="C391" s="22" t="s">
+      <c r="C391" s="18" t="s">
         <v>374</v>
       </c>
       <c r="D391" s="18" t="s">
@@ -15232,7 +15226,7 @@
       <c r="B392" s="13">
         <v>40341</v>
       </c>
-      <c r="C392" s="23" t="s">
+      <c r="C392" s="19" t="s">
         <v>382</v>
       </c>
       <c r="D392" s="19" t="s">
@@ -15267,7 +15261,7 @@
       <c r="B393" s="12">
         <v>40435</v>
       </c>
-      <c r="C393" s="22" t="s">
+      <c r="C393" s="18" t="s">
         <v>382</v>
       </c>
       <c r="D393" s="18" t="s">
@@ -15302,7 +15296,7 @@
       <c r="B394" s="13">
         <v>40529</v>
       </c>
-      <c r="C394" s="23" t="s">
+      <c r="C394" s="19" t="s">
         <v>382</v>
       </c>
       <c r="D394" s="19" t="s">
@@ -15337,7 +15331,7 @@
       <c r="B395" s="12">
         <v>40762</v>
       </c>
-      <c r="C395" s="22" t="s">
+      <c r="C395" s="18" t="s">
         <v>382</v>
       </c>
       <c r="D395" s="18" t="s">
@@ -15361,7 +15355,7 @@
       <c r="J395" s="18" t="s">
         <v>388</v>
       </c>
-      <c r="K395" s="20">
+      <c r="K395" s="14">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -15372,7 +15366,7 @@
       <c r="B396" s="13">
         <v>41302</v>
       </c>
-      <c r="C396" s="23" t="s">
+      <c r="C396" s="19" t="s">
         <v>382</v>
       </c>
       <c r="D396" s="19" t="s">
@@ -15407,7 +15401,7 @@
       <c r="B397" s="12">
         <v>41343</v>
       </c>
-      <c r="C397" s="22" t="s">
+      <c r="C397" s="18" t="s">
         <v>382</v>
       </c>
       <c r="D397" s="18" t="s">
@@ -15442,7 +15436,7 @@
       <c r="B398" s="13">
         <v>41586</v>
       </c>
-      <c r="C398" s="23" t="s">
+      <c r="C398" s="19" t="s">
         <v>382</v>
       </c>
       <c r="D398" s="19" t="s">
@@ -15477,7 +15471,7 @@
       <c r="B399" s="12">
         <v>39907</v>
       </c>
-      <c r="C399" s="22" t="s">
+      <c r="C399" s="18" t="s">
         <v>389</v>
       </c>
       <c r="D399" s="18" t="s">
@@ -15512,7 +15506,7 @@
       <c r="B400" s="13">
         <v>39948</v>
       </c>
-      <c r="C400" s="23" t="s">
+      <c r="C400" s="19" t="s">
         <v>389</v>
       </c>
       <c r="D400" s="19" t="s">
@@ -15547,7 +15541,7 @@
       <c r="B401" s="12">
         <v>40191</v>
       </c>
-      <c r="C401" s="22" t="s">
+      <c r="C401" s="18" t="s">
         <v>389</v>
       </c>
       <c r="D401" s="18" t="s">
@@ -15582,7 +15576,7 @@
       <c r="B402" s="13">
         <v>40775</v>
       </c>
-      <c r="C402" s="23" t="s">
+      <c r="C402" s="19" t="s">
         <v>389</v>
       </c>
       <c r="D402" s="19" t="s">
@@ -15617,7 +15611,7 @@
       <c r="B403" s="12">
         <v>40869</v>
       </c>
-      <c r="C403" s="22" t="s">
+      <c r="C403" s="18" t="s">
         <v>389</v>
       </c>
       <c r="D403" s="18" t="s">
@@ -15652,7 +15646,7 @@
       <c r="B404" s="13">
         <v>40963</v>
       </c>
-      <c r="C404" s="23" t="s">
+      <c r="C404" s="19" t="s">
         <v>389</v>
       </c>
       <c r="D404" s="19" t="s">
@@ -15687,7 +15681,7 @@
       <c r="B405" s="12">
         <v>41196</v>
       </c>
-      <c r="C405" s="22" t="s">
+      <c r="C405" s="18" t="s">
         <v>389</v>
       </c>
       <c r="D405" s="18" t="s">
@@ -15711,7 +15705,7 @@
       <c r="J405" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="K405" s="20">
+      <c r="K405" s="14">
         <v>0.99000000953674316</v>
       </c>
     </row>
@@ -15722,7 +15716,7 @@
       <c r="B406" s="13">
         <v>40341</v>
       </c>
-      <c r="C406" s="23" t="s">
+      <c r="C406" s="19" t="s">
         <v>395</v>
       </c>
       <c r="D406" s="19" t="s">
@@ -15757,7 +15751,7 @@
       <c r="B407" s="12">
         <v>40382</v>
       </c>
-      <c r="C407" s="22" t="s">
+      <c r="C407" s="18" t="s">
         <v>395</v>
       </c>
       <c r="D407" s="18" t="s">
@@ -15792,7 +15786,7 @@
       <c r="B408" s="13">
         <v>40625</v>
       </c>
-      <c r="C408" s="23" t="s">
+      <c r="C408" s="19" t="s">
         <v>395</v>
       </c>
       <c r="D408" s="19" t="s">
@@ -15827,7 +15821,7 @@
       <c r="B409" s="12">
         <v>41209</v>
       </c>
-      <c r="C409" s="22" t="s">
+      <c r="C409" s="18" t="s">
         <v>395</v>
       </c>
       <c r="D409" s="18" t="s">
@@ -15862,7 +15856,7 @@
       <c r="B410" s="13">
         <v>41303</v>
       </c>
-      <c r="C410" s="23" t="s">
+      <c r="C410" s="19" t="s">
         <v>395</v>
       </c>
       <c r="D410" s="19" t="s">
@@ -15897,7 +15891,7 @@
       <c r="B411" s="12">
         <v>41397</v>
       </c>
-      <c r="C411" s="22" t="s">
+      <c r="C411" s="18" t="s">
         <v>395</v>
       </c>
       <c r="D411" s="18" t="s">
@@ -15932,7 +15926,7 @@
       <c r="B412" s="13">
         <v>41630</v>
       </c>
-      <c r="C412" s="23" t="s">
+      <c r="C412" s="19" t="s">
         <v>395</v>
       </c>
       <c r="D412" s="19" t="s">
@@ -15967,7 +15961,7 @@
       <c r="B413" s="12">
         <v>39908</v>
       </c>
-      <c r="C413" s="22" t="s">
+      <c r="C413" s="18" t="s">
         <v>402</v>
       </c>
       <c r="D413" s="18" t="s">
@@ -16002,7 +15996,7 @@
       <c r="B414" s="13">
         <v>40002</v>
       </c>
-      <c r="C414" s="23" t="s">
+      <c r="C414" s="19" t="s">
         <v>402</v>
       </c>
       <c r="D414" s="19" t="s">
@@ -16037,7 +16031,7 @@
       <c r="B415" s="12">
         <v>40235</v>
       </c>
-      <c r="C415" s="22" t="s">
+      <c r="C415" s="18" t="s">
         <v>402</v>
       </c>
       <c r="D415" s="18" t="s">
@@ -16072,7 +16066,7 @@
       <c r="B416" s="13">
         <v>40775</v>
       </c>
-      <c r="C416" s="23" t="s">
+      <c r="C416" s="19" t="s">
         <v>402</v>
       </c>
       <c r="D416" s="19" t="s">
@@ -16107,7 +16101,7 @@
       <c r="B417" s="12">
         <v>40816</v>
       </c>
-      <c r="C417" s="22" t="s">
+      <c r="C417" s="18" t="s">
         <v>402</v>
       </c>
       <c r="D417" s="18" t="s">
@@ -16142,7 +16136,7 @@
       <c r="B418" s="13">
         <v>41059</v>
       </c>
-      <c r="C418" s="23" t="s">
+      <c r="C418" s="19" t="s">
         <v>402</v>
       </c>
       <c r="D418" s="19" t="s">
